--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF9CEB-FC8E-0E4D-8E71-B1F25E2FC5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E8398-E554-FC4C-9572-8FA32F58CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>单位</t>
   </si>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>广州-深圳</t>
+  </si>
+  <si>
+    <t>电池容量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -293,9 +301,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +353,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
@@ -352,12 +368,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -409,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,34 +447,55 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -455,7 +504,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -750,498 +826,498 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>82724.5851231087</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>81897.339271877601</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>81078.365879158897</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>80267.582220367301</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>79464.906398163599</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>78670.257334181995</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>77883.554760840096</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>77104.7192132317</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>76333.672021099395</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>75570.335300888401</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>62043.439079177799</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" s="26" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="28">
         <v>80</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="28">
         <v>80</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="28">
         <v>80</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="28">
         <v>80</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="28">
         <v>80</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="28">
         <v>80</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="28">
         <v>80</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="28">
         <v>80</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="28">
         <v>80</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="28">
         <v>80</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>3500</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>3500</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>3500</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>3500</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>3500</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>3500</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="10">
         <v>3500</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>3500</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>3500</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>3500</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <f>3500*5</f>
         <v>17500</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:L7" si="0">3500*5</f>
         <v>17500</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="14">
         <f>C2+C3+C7</f>
         <v>162268.0242022865</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>161440.7783510554</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>160621.8049583367</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>159811.0212995451</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>159008.34547734138</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>158213.69641335978</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>157426.99384001788</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
         <v>156648.1582924095</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>155877.11110027719</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="14">
         <f t="shared" si="1"/>
         <v>155113.7743800662</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="29">
         <v>37164.465304906</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="29">
         <v>37111.5538049182</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="29">
         <v>37059.171419930302</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="29">
         <v>37007.312858792298</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="29">
         <v>36955.972883265596</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="29">
         <v>36905.1463074942</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="29">
         <v>36854.827997480497</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="29">
         <v>36805.012870566999</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="29">
         <v>36755.695894922603</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="29">
         <v>36706.872089034601</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="16">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
         <v>199432.48950719251</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="16">
         <f t="shared" si="2"/>
         <v>198552.33215597359</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="16">
         <f t="shared" si="2"/>
         <v>197680.97637826699</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="16">
         <f t="shared" si="2"/>
         <v>196818.33415833738</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="16">
         <f t="shared" si="2"/>
         <v>195964.31836060697</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="16">
         <f t="shared" si="2"/>
         <v>195118.84272085398</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>194281.82183749837</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="16">
         <f t="shared" si="2"/>
         <v>193453.17116297651</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="16">
         <f t="shared" si="2"/>
         <v>192632.80699519979</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="16">
         <f t="shared" si="2"/>
         <v>191820.64646910079</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="17">
         <v>13.72</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="17">
         <v>13.445600000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="17">
         <v>13.176688</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="17">
         <v>12.913154240000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="17">
         <v>12.6548911552</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>12.401793332096</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="17">
         <v>12.153757465454101</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="17">
         <v>11.910682316145</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="17">
         <v>11.6724686698221</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1250,46 +1326,46 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>8.1449999999999996</v>
       </c>
     </row>
@@ -1297,301 +1373,301 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="19">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="19">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="19">
         <v>1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="19">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="19">
         <v>1</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="19">
         <v>1</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="21">
         <v>6000</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="21">
         <v>6000</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="21">
         <v>6000</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="21">
         <v>6000</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="21">
         <v>6000</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="21">
         <v>6000</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="21">
         <v>6000</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="21">
         <v>6000</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="21">
         <v>6000</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="21">
         <v>6000</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="21">
         <v>2.63</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
         <v>2.63</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="21">
         <v>2.63</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="21">
         <v>2.63</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <v>2.63</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="21">
         <v>2.63</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="21">
         <v>2.63</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="21">
         <v>2.63</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="21">
         <v>2.63</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="21">
         <v>2.63</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="21">
         <v>2.63</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="21">
         <v>2.63</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="21">
         <v>2.63</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="21">
         <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>0.2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <f t="shared" ref="D16:L16" si="3">C16</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>5000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>5000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>2000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1600,440 +1676,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>100</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>100</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>100</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>100</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>100</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>100</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>100</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>100</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>100</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>900</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="11">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>55</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>55</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>55</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>55</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>55</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>55</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>55</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>55</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>55</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>55</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>1000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <v>2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="12">
         <v>2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>3500</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>3500</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>3500</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>3500</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>3500</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <v>3500</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="10">
         <v>3500</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="10">
         <v>3500</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="10">
         <v>3500</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="10">
         <v>3500</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <v>5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="11">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>217500</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>202712.96118214715</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>193200.95896868245</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>182947.23311480688</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>174422.34813919102</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>169903.93177030535</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>166166.5208814393</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="14">
         <f t="shared" si="0"/>
         <v>162151.1349852829</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>158825.63398896775</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="14">
         <f t="shared" si="0"/>
         <v>156503.48252979599</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="16">
         <v>26792.687779456399</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="16">
         <v>25731.655474442501</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="16">
         <v>25042.540975628799</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="16">
         <v>24303.565067134099</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="16">
         <v>23687.429092815099</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="16">
         <v>23353.388636064599</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="16">
         <v>23075.3525171486</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="16">
         <v>22778.991456742599</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="16">
         <v>22531.950046172798</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="16">
         <v>22356.066483806499</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2042,101 +2118,101 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="23">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>244292.68777945641</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="14">
         <f t="shared" si="1"/>
         <v>228444.61665658964</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>218243.49994431125</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>207250.79818194098</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>198109.7772320061</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>193257.32040636995</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>189241.87339858789</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
         <v>184930.1264420255</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>181357.58403514055</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>178859.54901360249</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>40</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>39.200000000000003</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <v>38.415999999999997</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="17">
         <v>37.647680000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="17">
         <v>36.894726400000003</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="17">
         <v>36.156831871999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="17">
         <v>35.433695234559998</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="17">
         <v>34.725021329868802</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="17">
         <v>34.030520903271402</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="17">
         <v>33.349910485206003</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="17">
         <f>L12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="17">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="17">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="17">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
@@ -2145,415 +2221,457 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>0.9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0.9</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>0.9</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>0.9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>0.9</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>0.9</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <v>0.9</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>0.9</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1">
+      <c r="A14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17">
+        <v>100</v>
+      </c>
+      <c r="E14" s="17">
+        <v>100</v>
+      </c>
+      <c r="F14" s="17">
+        <v>100</v>
+      </c>
+      <c r="G14" s="17">
+        <v>100</v>
+      </c>
+      <c r="H14" s="17">
+        <v>100</v>
+      </c>
+      <c r="I14" s="17">
+        <v>100</v>
+      </c>
+      <c r="J14" s="17">
+        <v>100</v>
+      </c>
+      <c r="K14" s="17">
+        <v>100</v>
+      </c>
+      <c r="L14" s="17">
+        <v>100</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="5">
         <v>6.2111801242236</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="5">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="5">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="5">
         <v>6.02853416149068</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="5">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="5">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="5">
         <v>5.85641943304348</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J15" s="5">
         <v>5.80123076391056</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K15" s="5">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L15" s="5">
         <v>5.69394277454363</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="17">
         <v>621.11801242236004</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="17">
         <v>614.90683229813703</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="17">
         <v>608.81987577639802</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="17">
         <v>602.85341614906804</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="17">
         <v>597.00387577639697</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="17">
         <v>591.26781863353995</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="17">
         <v>585.64194330434805</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="17">
         <v>580.12307639105597</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="17">
         <v>574.70816631107596</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="17">
         <v>569.39427745436296</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="19">
         <v>2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="19">
         <v>2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I17" s="19">
         <v>2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J17" s="19">
         <v>2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="19">
         <v>2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="19">
         <v>2</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="13" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C18" s="21">
         <v>250</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="21">
         <v>250</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="21">
         <v>250</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="21">
         <v>250</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="21">
         <v>250</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="21">
         <v>250</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="21">
         <v>250</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="21">
         <v>250</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="21">
         <v>250</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L18" s="21">
         <v>250</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="22">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O19" s="21">
         <v>0.57030000000000003</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P19" s="21">
         <v>0.57030000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="5">
         <v>0.2</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:L19" si="3">C19</f>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="5">
         <v>5000</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="4">C20</f>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="5">
         <v>2000</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="5">C21</f>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2563,620 +2681,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>35</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>35</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>35</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>35</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="10">
         <v>35</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>35</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="10">
         <v>35</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>35</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>35</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>35</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>4500</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="11">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>30</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>28</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>24</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>22</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>20</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>20</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>20</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>20</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>20</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>900</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>55</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>55</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>55</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>55</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>55</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>55</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="10">
         <v>55</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="10">
         <v>55</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>55</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="10">
         <v>55</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>1000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="11">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="11">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <v>2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="12">
         <v>2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="12">
         <v>2</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>12.2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>12.2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>12.2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>12.2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>12.2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="10">
         <v>12.2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="10">
         <v>12.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="10">
         <v>12.2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <v>12.2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="10">
         <v>12.2</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>4900</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="11">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="11">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>3500</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>3500</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>3500</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="10">
         <v>3500</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="10">
         <v>3500</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="10">
         <v>3500</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="10">
         <v>3500</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="10">
         <v>3500</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="10">
         <v>3500</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="10">
         <v>3500</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="11">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="11">
         <v>5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <v>5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="11">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <f>L12</f>
         <v>5</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <f t="shared" ref="N12:P12" si="0">M12</f>
         <v>5</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="14">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>371780</v>
       </c>
-      <c r="D13" s="10">
-        <f>D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>266308.21095885558</v>
       </c>
-      <c r="E13" s="10">
-        <f>E2*E3+E4*E5+E6*E7*E8+E9*E10+E11*E12</f>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
         <v>240389.77255347205</v>
       </c>
-      <c r="F13" s="10">
-        <f>F2*F3+F4*F5+F6*F7*F8+F9*F10+F11*F12</f>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
         <v>229353.21174032445</v>
       </c>
-      <c r="G13" s="10">
-        <f>G2*G3+G4*G5+G6*G7*G8+G9*G10+G11*G12</f>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
         <v>220468.57292678603</v>
       </c>
-      <c r="H13" s="10">
-        <f>H2*H3+H4*H5+H6*H7*H8+H9*H10+H11*H12</f>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
         <v>181738.69414989959</v>
       </c>
-      <c r="I13" s="10">
-        <f>I2*I3+I4*I5+I6*I7*I8+I9*I10+I11*I12</f>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
         <v>168247.73962365359</v>
       </c>
-      <c r="J13" s="10">
-        <f>J2*J3+J4*J5+J6*J7*J8+J9*J10+J11*J12</f>
+      <c r="J13" s="14">
+        <f t="shared" si="1"/>
         <v>161462.13122714593</v>
       </c>
-      <c r="K13" s="10">
-        <f>K2*K3+K4*K5+K6*K7*K8+K9*K10+K11*K12</f>
+      <c r="K13" s="14">
+        <f t="shared" si="1"/>
         <v>158670.32128268984</v>
       </c>
-      <c r="L13" s="10">
-        <f>L2*L3+L4*L5+L6*L7*L8+L9*L10+L11*L12</f>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
         <v>156291.7887547951</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="9" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="16">
         <v>32254.8488708144</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="16">
         <v>26625.9575081287</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="16">
         <v>25263.162136589901</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="16">
         <v>24658.162753217599</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="16">
         <v>24165.787309453699</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="16">
         <v>22184.210187959401</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="16">
         <v>21456.1838433782</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="16">
         <v>21063.551925949901</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="16">
         <v>20877.108197241902</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="16">
         <v>20723.0404031451</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
@@ -3185,480 +3303,522 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
-        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
+      <c r="C15" s="14">
+        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
         <v>404034.84887081443</v>
       </c>
-      <c r="D15" s="10">
-        <f t="shared" si="1"/>
+      <c r="D15" s="14">
+        <f t="shared" si="2"/>
         <v>292934.16846698429</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="1"/>
+      <c r="E15" s="14">
+        <f t="shared" si="2"/>
         <v>265652.93469006196</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
         <v>254011.37449354204</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" si="1"/>
+      <c r="G15" s="14">
+        <f t="shared" si="2"/>
         <v>244634.36023623974</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="1"/>
+      <c r="H15" s="14">
+        <f t="shared" si="2"/>
         <v>203922.90433785898</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
+      <c r="I15" s="14">
+        <f t="shared" si="2"/>
         <v>189703.9234670318</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="1"/>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>182525.68315309583</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="1"/>
+      <c r="K15" s="14">
+        <f t="shared" si="2"/>
         <v>179547.42947993174</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="1"/>
+      <c r="L15" s="14">
+        <f t="shared" si="2"/>
         <v>177014.8291579402</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="17">
         <v>2.5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="17">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="17">
         <v>2.4009999999999998</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="17">
         <v>2.3529800000000001</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="17">
         <v>2.3059204000000002</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>2.2598019919999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="17">
         <v>2.2146059521599999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="17">
         <v>2.1703138331168002</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="17">
         <v>2.1269075564544599</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>50</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>49</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>48</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>47</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>46</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>45</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>44</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>43</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>42</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>41</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1">
+      <c r="A18" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10">
+        <v>26</v>
+      </c>
+      <c r="F18" s="10">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10">
+        <v>22</v>
+      </c>
+      <c r="H18" s="10">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10">
+        <v>20</v>
+      </c>
+      <c r="J18" s="10">
+        <v>20</v>
+      </c>
+      <c r="K18" s="10">
+        <v>20</v>
+      </c>
+      <c r="L18" s="10">
+        <v>20</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="5">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="5">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="5">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="5">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="5">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="5">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="5">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="5">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="5">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="5">
         <v>5.69394277454363</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:16" s="3" customFormat="1">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="17">
         <v>186.33540372670799</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="17">
         <v>172.173913043478</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="17">
         <v>158.29316770186301</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="17">
         <v>144.68481987577599</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="17">
         <v>131.34085267080701</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="17">
         <v>118.25356372670799</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="17">
         <v>117.12838866087</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="17">
         <v>116.024615278211</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="17">
         <v>114.94163326221501</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="17">
         <v>113.87885549087299</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="19">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="21">
         <v>500</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="21">
         <v>500</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="21">
         <v>500</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="21">
         <v>500</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="21">
         <v>500</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="21">
         <v>500</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="21">
         <v>500</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="21">
         <v>500</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="21">
         <v>500</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L22" s="21">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O23" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P23" s="22">
         <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:L23" si="2">C23</f>
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" ref="D24:L24" si="3">C24</f>
-        <v>5000</v>
-      </c>
-      <c r="E24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="F24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="G24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="H24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="I24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="J24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="K24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-      <c r="L24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="6">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
+        <v>5000</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5">
         <v>2000</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="5">
-        <f t="shared" si="4"/>
+      <c r="E26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="4"/>
+      <c r="F26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="4"/>
+      <c r="G26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="5">
-        <f t="shared" si="4"/>
+      <c r="H26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" si="4"/>
+      <c r="I26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="5">
-        <f t="shared" si="4"/>
+      <c r="J26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="4"/>
+      <c r="K26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="5">
-        <f t="shared" si="4"/>
+      <c r="L26" s="6">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3667,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3677,38 +3837,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
     </row>
@@ -3719,42 +3879,42 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0.06</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -3766,42 +3926,42 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3813,42 +3973,42 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>0.8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -3860,45 +4020,44 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4">
-        <f>C6*8</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
         <f t="shared" ref="D5:L5" si="3">C5</f>
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="J5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K5" s="5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L5" s="5">
+        <v>12</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3908,42 +4067,42 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3955,42 +4114,42 @@
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>10000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
@@ -4002,44 +4161,44 @@
       <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4">
-        <v>75</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" ref="D8:L8" si="6">C8</f>
-        <v>75</v>
-      </c>
-      <c r="E8" s="5">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="F8" s="5">
+        <v>80</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="G8" s="5">
+        <v>80</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="H8" s="5">
+        <v>80</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="I8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="J8" s="5">
+        <v>80</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="K8" s="5">
+        <v>80</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="L8" s="5">
+        <v>80</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4049,44 +4208,44 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" ref="D9:L9" si="7">C9</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4096,86 +4255,86 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0.12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>4.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>4.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>4.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>4.5</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>4.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>4.5</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>4.5</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>4.5</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>4.5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="8">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4185,14 +4344,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625"/>
     <col min="7" max="7" width="11.6640625"/>
-    <col min="9" max="12" width="12.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4220,13 +4379,14 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>4145</v>
+        <v>4164.7110000000002</v>
       </c>
       <c r="C2">
-        <v>0.20261509899999999</v>
+        <f>D2/B2</f>
+        <v>3.2415214405033144</v>
       </c>
       <c r="D2" s="2">
-        <v>25314.9999471417</v>
+        <v>13500</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4240,13 +4400,14 @@
         <v>74</v>
       </c>
       <c r="B3">
-        <v>960</v>
+        <v>949.08900000000006</v>
       </c>
       <c r="C3">
-        <v>0.26672779400000002</v>
+        <f t="shared" ref="C3:C11" si="0">D3/B3</f>
+        <v>2.9501975051865523</v>
       </c>
       <c r="D3" s="2">
-        <v>26530.000011871802</v>
+        <v>2800</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4260,13 +4421,14 @@
         <v>75</v>
       </c>
       <c r="B4">
-        <v>627</v>
+        <v>591.85400000000004</v>
       </c>
       <c r="C4">
-        <v>9.4021773000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5344088237977607</v>
       </c>
       <c r="D4" s="2">
-        <v>5986.9999936600198</v>
+        <v>1500</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4280,19 +4442,20 @@
         <v>76</v>
       </c>
       <c r="B5">
-        <v>171</v>
+        <v>271.34699999999998</v>
       </c>
       <c r="C5">
-        <v>0.31496206500000001</v>
+        <f t="shared" si="0"/>
+        <v>2.5797226429627012</v>
       </c>
       <c r="D5" s="2">
-        <v>20048.000007207102</v>
+        <v>700</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>73</v>
+      <c r="F5" s="31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4300,13 +4463,14 @@
         <v>77</v>
       </c>
       <c r="B6">
-        <v>221</v>
+        <v>264.16399999999999</v>
       </c>
       <c r="C6">
-        <v>0.36107541100000001</v>
+        <f t="shared" si="0"/>
+        <v>3.0284217380112355</v>
       </c>
       <c r="D6" s="2">
-        <v>14775.0000051357</v>
+        <v>800</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -4320,13 +4484,14 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>1282</v>
+        <v>1206.865</v>
       </c>
       <c r="C7">
-        <v>0.25087036800000001</v>
+        <f t="shared" si="0"/>
+        <v>3.314372361448878</v>
       </c>
       <c r="D7" s="2">
-        <v>9083.0000002895995</v>
+        <v>4000</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4340,13 +4505,14 @@
         <v>79</v>
       </c>
       <c r="B8">
-        <v>2161</v>
+        <v>2121.7370000000001</v>
       </c>
       <c r="C8">
-        <v>0.28581794399999999</v>
+        <f t="shared" si="0"/>
+        <v>2.7336093021896679</v>
       </c>
       <c r="D8" s="2">
-        <v>8137.99999959048</v>
+        <v>5800</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4360,13 +4526,14 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>1362</v>
+        <v>1363.981</v>
       </c>
       <c r="C9">
-        <v>0.12688172</v>
+        <f t="shared" si="0"/>
+        <v>2.6393329525851166</v>
       </c>
       <c r="D9" s="2">
-        <v>3598.9999877999999</v>
+        <v>3600</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4380,13 +4547,14 @@
         <v>81</v>
       </c>
       <c r="B10">
-        <v>845</v>
+        <v>794</v>
       </c>
       <c r="C10">
-        <v>0.43954659899999998</v>
+        <f t="shared" si="0"/>
+        <v>3.2745591939546599</v>
       </c>
       <c r="D10" s="2">
-        <v>10469.999988179999</v>
+        <v>2600</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4400,13 +4568,14 @@
         <v>82</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>138.03100000000001</v>
       </c>
       <c r="C11">
-        <v>0.15600694300000001</v>
+        <f t="shared" si="0"/>
+        <v>4.3468496207373706</v>
       </c>
       <c r="D11" s="2">
-        <v>2769.9999972696601</v>
+        <v>600</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4437,7 +4606,7 @@
       <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E8398-E554-FC4C-9572-8FA32F58CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D15CA-734C-7C4C-868F-7581FE63D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>单位</t>
   </si>
@@ -294,6 +294,18 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均负载率</t>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
   </si>
 </sst>
 </file>
@@ -303,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +374,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -437,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +552,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3825,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4331,6 +4357,82 @@
       </c>
       <c r="L11" s="8">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33">
+        <v>100</v>
+      </c>
+      <c r="D12" s="33">
+        <v>100</v>
+      </c>
+      <c r="E12" s="33">
+        <v>100</v>
+      </c>
+      <c r="F12" s="33">
+        <v>100</v>
+      </c>
+      <c r="G12" s="33">
+        <v>100</v>
+      </c>
+      <c r="H12" s="33">
+        <v>100</v>
+      </c>
+      <c r="I12" s="33">
+        <v>100</v>
+      </c>
+      <c r="J12" s="33">
+        <v>100</v>
+      </c>
+      <c r="K12" s="33">
+        <v>100</v>
+      </c>
+      <c r="L12" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="33">
+        <v>100</v>
+      </c>
+      <c r="D13" s="33">
+        <v>100</v>
+      </c>
+      <c r="E13" s="33">
+        <v>100</v>
+      </c>
+      <c r="F13" s="33">
+        <v>100</v>
+      </c>
+      <c r="G13" s="33">
+        <v>100</v>
+      </c>
+      <c r="H13" s="33">
+        <v>100</v>
+      </c>
+      <c r="I13" s="33">
+        <v>100</v>
+      </c>
+      <c r="J13" s="33">
+        <v>100</v>
+      </c>
+      <c r="K13" s="33">
+        <v>100</v>
+      </c>
+      <c r="L13" s="33">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D15CA-734C-7C4C-868F-7581FE63D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705B599-D4BE-FB4D-AE14-F9E909DA40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>单位</t>
   </si>
@@ -153,27 +153,30 @@
     <t>元/kwh</t>
   </si>
   <si>
+    <t>电池容量</t>
+  </si>
+  <si>
+    <t>动力电池能量密度</t>
+  </si>
+  <si>
+    <t>kg/kwh</t>
+  </si>
+  <si>
+    <t>kWh/小时</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>燃料电池系统功率</t>
+  </si>
+  <si>
+    <t>燃料电池系统单价</t>
+  </si>
+  <si>
     <t>动力电池容量</t>
   </si>
   <si>
-    <t>动力电池能量密度</t>
-  </si>
-  <si>
-    <t>kg/kwh</t>
-  </si>
-  <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
-    <t>燃料电池系统功率</t>
-  </si>
-  <si>
-    <t>燃料电池系统单价</t>
-  </si>
-  <si>
     <t>氢瓶单位成本</t>
   </si>
   <si>
@@ -237,6 +240,18 @@
     <t>吨</t>
   </si>
   <si>
+    <t>平均负载率</t>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+  </si>
+  <si>
     <t>路线</t>
   </si>
   <si>
@@ -288,24 +303,14 @@
     <t>广州-深圳</t>
   </si>
   <si>
-    <t>电池容量</t>
+    <t>是否固定趟数</t>
+  </si>
+  <si>
+    <t>每日固定趟数</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均负载率</t>
-  </si>
-  <si>
-    <t>%,考虑每趟满载的可能性</t>
-  </si>
-  <si>
-    <t>行驶时间占比</t>
-  </si>
-  <si>
-    <t>%,考虑接不到单或高频装卸货时间</t>
   </si>
 </sst>
 </file>
@@ -313,9 +318,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +332,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -365,23 +378,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -408,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -451,13 +448,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,67 +483,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -542,22 +558,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,130 +903,130 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>82724.5851231087</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>81897.339271877601</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="13">
         <v>81078.365879158897</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>80267.582220367301</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="13">
         <v>79464.906398163599</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="13">
         <v>78670.257334181995</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="13">
         <v>77883.554760840096</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="13">
         <v>77104.7192132317</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="13">
         <v>76333.672021099395</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="13">
         <v>75570.335300888401</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="13">
         <v>62043.439079177799</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" s="26" customFormat="1">
-      <c r="A4" s="27" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" s="28" customFormat="1">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="30">
         <v>80</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="30">
         <v>80</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="30">
         <v>80</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="30">
         <v>80</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="30">
         <v>80</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="30">
         <v>80</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="30">
         <v>80</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="30">
         <v>80</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="30">
         <v>80</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="30">
         <v>80</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1">
       <c r="A5" s="7" t="s">
@@ -1028,40 +1035,40 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>3500</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <v>3500</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <v>3500</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>3500</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <v>3500</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>3500</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="13">
         <v>3500</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="13">
         <v>3500</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="13">
         <v>3500</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <v>3500</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -1112,144 +1119,144 @@
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <f>3500*5</f>
         <v>17500</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <f t="shared" ref="D7:L7" si="0">3500*5</f>
         <v>17500</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <f>C2+C3+C7</f>
         <v>162268.0242022865</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="17">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>161440.7783510554</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="17">
         <f t="shared" si="1"/>
         <v>160621.8049583367</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>159811.0212995451</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="17">
         <f t="shared" si="1"/>
         <v>159008.34547734138</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>158213.69641335978</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>157426.99384001788</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>156648.1582924095</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
         <v>155877.11110027719</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="17">
         <f t="shared" si="1"/>
         <v>155113.7743800662</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="31">
         <v>37164.465304906</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="31">
         <v>37111.5538049182</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <v>37059.171419930302</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="31">
         <v>37007.312858792298</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="31">
         <v>36955.972883265596</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="31">
         <v>36905.1463074942</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="31">
         <v>36854.827997480497</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="31">
         <v>36805.012870566999</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="31">
         <v>36755.695894922603</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="31">
         <v>36706.872089034601</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
@@ -1258,50 +1265,50 @@
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="19">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
         <v>199432.48950719251</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="19">
         <f t="shared" si="2"/>
         <v>198552.33215597359</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="19">
         <f t="shared" si="2"/>
         <v>197680.97637826699</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="19">
         <f t="shared" si="2"/>
         <v>196818.33415833738</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="19">
         <f t="shared" si="2"/>
         <v>195964.31836060697</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="19">
         <f t="shared" si="2"/>
         <v>195118.84272085398</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="19">
         <f t="shared" si="2"/>
         <v>194281.82183749837</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="19">
         <f t="shared" si="2"/>
         <v>193453.17116297651</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="19">
         <f t="shared" si="2"/>
         <v>192632.80699519979</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="19">
         <f t="shared" si="2"/>
         <v>191820.64646910079</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
@@ -1310,40 +1317,40 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>14</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="20">
         <v>13.72</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="20">
         <v>13.445600000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="20">
         <v>13.176688</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="20">
         <v>12.913154240000001</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="20">
         <v>12.6548911552</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="20">
         <v>12.401793332096</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="20">
         <v>12.153757465454101</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="20">
         <v>11.910682316145</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="20">
         <v>11.6724686698221</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1399,138 +1406,138 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="22">
         <v>1</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="22">
         <v>1</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="22">
         <v>1</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="22">
         <v>1</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="22">
         <v>1</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="22">
         <v>1</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="23">
         <v>6000</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="23">
         <v>6000</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="23">
         <v>6000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>6000</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>6000</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="23">
         <v>6000</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="23">
         <v>6000</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="23">
         <v>6000</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="23">
         <v>6000</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="23">
         <v>6000</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="23">
         <v>2.63</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="23">
         <v>2.63</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="23">
         <v>2.63</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="23">
         <v>2.63</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="23">
         <v>2.63</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="23">
         <v>2.63</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="23">
         <v>2.63</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="23">
         <v>2.63</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="23">
         <v>2.63</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="23">
         <v>2.63</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="23">
         <v>2.63</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="23">
         <v>2.63</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <v>2.63</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="23">
         <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
@@ -1581,7 +1588,7 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -1632,7 +1639,7 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
@@ -1693,7 +1700,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M13" sqref="M13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1753,43 +1760,43 @@
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>100</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="13">
         <v>100</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>100</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="13">
         <v>100</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="13">
         <v>100</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="13">
         <v>100</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="13">
         <v>100</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="13">
         <v>100</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
@@ -1798,82 +1805,82 @@
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>900</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="14">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="14">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="14">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>55</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>55</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>55</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="13">
         <v>55</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="13">
         <v>55</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>55</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="13">
         <v>55</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="13">
         <v>55</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="13">
         <v>55</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="13">
         <v>55</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
@@ -1882,124 +1889,124 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>1000</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="15">
         <v>2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="15">
         <v>2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="15">
         <v>2</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>3500</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>3500</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="13">
         <v>3500</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="13">
         <v>3500</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="13">
         <v>3500</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="13">
         <v>3500</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="13">
         <v>3500</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="13">
         <v>3500</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="13">
         <v>3500</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="13">
         <v>3500</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
@@ -2008,134 +2015,134 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="14">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="14">
         <v>5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>5</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="14">
         <v>5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="14">
         <v>5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="14">
         <v>5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="14">
         <v>5</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="17">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>217500</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>202712.96118214715</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>193200.95896868245</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>182947.23311480688</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>174422.34813919102</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>169903.93177030535</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>166166.5208814393</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>162151.1349852829</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>158825.63398896775</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>156503.48252979599</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="19">
         <v>26792.687779456399</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="19">
         <v>25731.655474442501</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="19">
         <v>25042.540975628799</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="19">
         <v>24303.565067134099</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="19">
         <v>23687.429092815099</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="19">
         <v>23353.388636064599</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="19">
         <v>23075.3525171486</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="19">
         <v>22778.991456742599</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="19">
         <v>22531.950046172798</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="19">
         <v>22356.066483806499</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2144,43 +2151,43 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="25">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>244292.68777945641</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="17">
         <f t="shared" si="1"/>
         <v>228444.61665658964</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="17">
         <f t="shared" si="1"/>
         <v>218243.49994431125</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>207250.79818194098</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
         <v>198109.7772320061</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>193257.32040636995</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>189241.87339858789</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
         <v>184930.1264420255</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="17">
         <f t="shared" si="1"/>
         <v>181357.58403514055</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="17">
         <f t="shared" si="1"/>
         <v>178859.54901360249</v>
       </c>
@@ -2193,52 +2200,52 @@
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>40</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="20">
         <v>38.415999999999997</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="20">
         <v>37.647680000000001</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="20">
         <v>36.894726400000003</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="20">
         <v>36.156831871999998</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="20">
         <v>35.433695234559998</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="20">
         <v>34.725021329868802</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="20">
         <v>34.030520903271402</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="20">
         <v>33.349910485206003</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="20">
         <f>L12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="20">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="20">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="20">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
@@ -2280,52 +2287,64 @@
       <c r="L13" s="4">
         <v>0.9</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="M13" s="22">
+        <f>L13</f>
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="22">
+        <f>M13</f>
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="22">
+        <f>N13</f>
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="22">
+        <f>O13</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1">
-      <c r="A14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="20">
         <v>100</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="20">
         <v>100</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="20">
         <v>100</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="20">
         <v>100</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <v>100</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="20">
         <v>100</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <v>100</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="20">
         <v>100</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
@@ -2364,88 +2383,88 @@
       <c r="L15" s="5">
         <v>5.69394277454363</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="20">
         <v>621.11801242236004</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="20">
         <v>614.90683229813703</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="20">
         <v>608.81987577639802</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="20">
         <v>602.85341614906804</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="20">
         <v>597.00387577639697</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="20">
         <v>591.26781863353995</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="20">
         <v>585.64194330434805</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="20">
         <v>580.12307639105597</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="20">
         <v>574.70816631107596</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="20">
         <v>569.39427745436296</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="22">
         <v>2</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="22">
         <v>2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="22">
         <v>2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="22">
         <v>2</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="22">
         <v>2</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="22">
         <v>2</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="22">
         <v>2</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="22">
         <v>2</v>
       </c>
       <c r="M17" s="6"/>
@@ -2454,40 +2473,40 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="23">
         <v>250</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="23">
         <v>250</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="23">
         <v>250</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="23">
         <v>250</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="23">
         <v>250</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="23">
         <v>250</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="23">
         <v>250</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="23">
         <v>250</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="23">
         <v>250</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="23">
         <v>250</v>
       </c>
       <c r="M18" s="6"/>
@@ -2496,57 +2515,57 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="24">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="23">
         <v>0.57030000000000003</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="23">
         <v>0.57030000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -2593,7 +2612,7 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -2640,7 +2659,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -2696,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2755,46 +2774,46 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>35</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="13">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="13">
         <v>35</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>35</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="13">
         <v>35</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="13">
         <v>35</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="13">
         <v>35</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="13">
         <v>35</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="13">
         <v>35</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="13">
         <v>35</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
@@ -2803,82 +2822,82 @@
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>4500</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="14">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="14">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="14">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>30</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="13">
         <v>28</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>26</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="13">
         <v>24</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="13">
         <v>22</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>20</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="13">
         <v>20</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="13">
         <v>20</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="13">
         <v>20</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="13">
         <v>20</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
@@ -2887,82 +2906,82 @@
       <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>900</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>55</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>55</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
         <v>55</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="13">
         <v>55</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="13">
         <v>55</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="13">
         <v>55</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="13">
         <v>55</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="13">
         <v>55</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="13">
         <v>55</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="13">
         <v>55</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
@@ -2971,356 +2990,344 @@
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>1000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="14">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="14">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="15">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="15">
         <v>2</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="15">
         <v>2</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>12.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="13">
         <v>12.2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="13">
         <v>12.2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="13">
         <v>12.2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="13">
         <v>12.2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="13">
         <v>12.2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="13">
         <v>12.2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="13">
         <v>12.2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="13">
         <v>12.2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="13">
         <v>12.2</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14">
         <v>4900</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="14">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="14">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="14">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="14">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="14">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="14">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>3500</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="13">
         <v>3500</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <v>3500</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="13">
         <v>3500</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="13">
         <v>3500</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="13">
         <v>3500</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="13">
         <v>3500</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="13">
         <v>3500</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="13">
         <v>3500</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="13">
         <v>3500</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14">
         <v>5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="14">
         <v>5</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="14">
         <v>5</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <v>5</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <v>5</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>5</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="14">
         <v>5</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="14">
         <v>5</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="14">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="17">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>371780</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+      <c r="D13" s="17">
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>266308.21095885558</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="1"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
         <v>240389.77255347205</v>
       </c>
-      <c r="F13" s="14">
-        <f t="shared" si="1"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
         <v>229353.21174032445</v>
       </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
         <v>220468.57292678603</v>
       </c>
-      <c r="H13" s="14">
-        <f t="shared" si="1"/>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
         <v>181738.69414989959</v>
       </c>
-      <c r="I13" s="14">
-        <f t="shared" si="1"/>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
         <v>168247.73962365359</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" si="1"/>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
         <v>161462.13122714593</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" si="1"/>
+      <c r="K13" s="17">
+        <f t="shared" si="0"/>
         <v>158670.32128268984</v>
       </c>
-      <c r="L13" s="14">
-        <f t="shared" si="1"/>
+      <c r="L13" s="17">
+        <f t="shared" si="0"/>
         <v>156291.7887547951</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="19">
         <v>32254.8488708144</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="19">
         <v>26625.9575081287</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="19">
         <v>25263.162136589901</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="19">
         <v>24658.162753217599</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="19">
         <v>24165.787309453699</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="19">
         <v>22184.210187959401</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="19">
         <v>21456.1838433782</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="19">
         <v>21063.551925949901</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="19">
         <v>20877.108197241902</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="19">
         <v>20723.0404031451</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
@@ -3329,99 +3336,99 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+      <c r="C15" s="17">
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>404034.84887081443</v>
       </c>
-      <c r="D15" s="14">
-        <f t="shared" si="2"/>
+      <c r="D15" s="17">
+        <f t="shared" si="1"/>
         <v>292934.16846698429</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" si="2"/>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
         <v>265652.93469006196</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
+      <c r="F15" s="17">
+        <f t="shared" si="1"/>
         <v>254011.37449354204</v>
       </c>
-      <c r="G15" s="14">
-        <f t="shared" si="2"/>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
         <v>244634.36023623974</v>
       </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
+      <c r="H15" s="17">
+        <f t="shared" si="1"/>
         <v>203922.90433785898</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="2"/>
+      <c r="I15" s="17">
+        <f t="shared" si="1"/>
         <v>189703.9234670318</v>
       </c>
-      <c r="J15" s="14">
-        <f t="shared" si="2"/>
+      <c r="J15" s="17">
+        <f t="shared" si="1"/>
         <v>182525.68315309583</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="2"/>
+      <c r="K15" s="17">
+        <f t="shared" si="1"/>
         <v>179547.42947993174</v>
       </c>
-      <c r="L15" s="14">
-        <f t="shared" si="2"/>
+      <c r="L15" s="17">
+        <f t="shared" si="1"/>
         <v>177014.8291579402</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="20">
         <v>3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="20">
         <v>2.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="20">
         <v>2.4009999999999998</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="20">
         <v>2.3529800000000001</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="20">
         <v>2.3059204000000002</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="20">
         <v>2.2598019919999999</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="20">
         <v>2.2146059521599999</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="20">
         <v>2.1703138331168002</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="20">
         <v>2.1269075564544599</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5">
         <v>50</v>
@@ -3453,52 +3460,64 @@
       <c r="L17" s="5">
         <v>41</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="6">
+        <f>L17-1</f>
+        <v>40</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17-1</f>
+        <v>39</v>
+      </c>
+      <c r="O17" s="6">
+        <f>N17-1</f>
+        <v>38</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17-1</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1">
-      <c r="A18" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <v>30</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="13">
         <v>28</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="13">
         <v>26</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="13">
         <v>24</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="13">
         <v>22</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="13">
         <v>20</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="13">
         <v>20</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="13">
         <v>20</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="13">
         <v>20</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="13">
         <v>20</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
@@ -3542,37 +3561,37 @@
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="20">
         <v>186.33540372670799</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="20">
         <v>172.173913043478</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="20">
         <v>158.29316770186301</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="20">
         <v>144.68481987577599</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="20">
         <v>131.34085267080701</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="20">
         <v>118.25356372670799</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="20">
         <v>117.12838866087</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="20">
         <v>116.024615278211</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="20">
         <v>114.94163326221501</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="20">
         <v>113.87885549087299</v>
       </c>
     </row>
@@ -3580,125 +3599,125 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="22">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="21">
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="23">
         <v>500</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>500</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="23">
         <v>500</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="23">
         <v>500</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="23">
         <v>500</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="23">
         <v>500</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="23">
         <v>500</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="23">
         <v>500</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="23">
         <v>500</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="23">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="22">
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="24">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3713,39 +3732,39 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
+        <f t="shared" ref="D24:L24" si="2">C24</f>
         <v>0.2</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3760,39 +3779,39 @@
         <v>5000</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
+        <f t="shared" ref="D25:L25" si="3">C25</f>
         <v>5000</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
@@ -3807,39 +3826,39 @@
         <v>2000</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
+        <f t="shared" ref="D26:L26" si="4">C26</f>
         <v>2000</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
@@ -3853,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3900,7 +3919,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -3947,10 +3966,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -3994,7 +4013,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -4041,10 +4060,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>12</v>
@@ -4088,10 +4107,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -4135,10 +4154,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>10000</v>
@@ -4182,10 +4201,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5">
         <v>80</v>
@@ -4229,7 +4248,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -4276,7 +4295,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4323,10 +4342,10 @@
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>4.5</v>
@@ -4360,79 +4379,97 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="33">
-        <v>100</v>
-      </c>
-      <c r="D12" s="33">
-        <v>100</v>
-      </c>
-      <c r="E12" s="33">
-        <v>100</v>
-      </c>
-      <c r="F12" s="33">
-        <v>100</v>
-      </c>
-      <c r="G12" s="33">
-        <v>100</v>
-      </c>
-      <c r="H12" s="33">
-        <v>100</v>
-      </c>
-      <c r="I12" s="33">
-        <v>100</v>
-      </c>
-      <c r="J12" s="33">
-        <v>100</v>
-      </c>
-      <c r="K12" s="33">
-        <v>100</v>
-      </c>
-      <c r="L12" s="33">
-        <v>100</v>
+      <c r="A12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11">
+        <v>60</v>
+      </c>
+      <c r="D12" s="11">
+        <f>C12</f>
+        <v>60</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:L12" si="9">D12</f>
+        <v>60</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="33">
-        <v>100</v>
-      </c>
-      <c r="D13" s="33">
-        <v>100</v>
-      </c>
-      <c r="E13" s="33">
-        <v>100</v>
-      </c>
-      <c r="F13" s="33">
-        <v>100</v>
-      </c>
-      <c r="G13" s="33">
-        <v>100</v>
-      </c>
-      <c r="H13" s="33">
-        <v>100</v>
-      </c>
-      <c r="I13" s="33">
-        <v>100</v>
-      </c>
-      <c r="J13" s="33">
-        <v>100</v>
-      </c>
-      <c r="K13" s="33">
-        <v>100</v>
-      </c>
-      <c r="L13" s="33">
-        <v>100</v>
+      <c r="A13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11">
+        <v>65</v>
+      </c>
+      <c r="D13" s="11">
+        <f>C13</f>
+        <v>65</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13:L13" si="10">D13</f>
+        <v>65</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4443,10 +4480,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4456,29 +4493,35 @@
     <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>4164.7110000000002</v>
@@ -4494,12 +4537,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>949.08900000000006</v>
@@ -4515,12 +4564,18 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>591.85400000000004</v>
@@ -4536,12 +4591,18 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>271.34699999999998</v>
@@ -4556,13 +4617,19 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>264.16399999999999</v>
@@ -4578,12 +4645,18 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>1206.865</v>
@@ -4599,12 +4672,18 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>2121.7370000000001</v>
@@ -4620,12 +4699,18 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>1363.981</v>
@@ -4641,12 +4726,18 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>794</v>
@@ -4662,12 +4753,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>138.03100000000001</v>
@@ -4683,22 +4780,28 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">

--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705B599-D4BE-FB4D-AE14-F9E909DA40C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EDF1D1-B464-E243-9B5E-8B500003A7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -318,7 +318,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -385,24 +385,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -467,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,22 +465,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -501,70 +480,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +815,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -859,498 +829,498 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>82724.5851231087</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>81897.339271877601</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>81078.365879158897</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>80267.582220367301</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>79464.906398163599</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>78670.257334181995</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>77883.554760840096</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>77104.7192132317</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>76333.672021099395</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="9">
         <v>75570.335300888401</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="A3" s="12" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" s="28" customFormat="1">
-      <c r="A4" s="29" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="10">
         <v>80</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="10">
         <v>80</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="10">
         <v>80</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="10">
         <v>80</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="10">
         <v>80</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="10">
         <v>80</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="10">
         <v>80</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="10">
         <v>80</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="10">
         <v>80</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="10">
         <v>80</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1">
-      <c r="A5" s="7" t="s">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>3500</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>3500</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>3500</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>3500</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="9">
         <v>3500</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>3500</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>3500</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>3500</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>3500</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="9">
         <v>3500</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <f>3500*5</f>
         <v>17500</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <f t="shared" ref="D7:L7" si="0">3500*5</f>
         <v>17500</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="11">
         <f>C2+C3+C7</f>
         <v>162268.0242022865</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>161440.7783510554</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>160621.8049583367</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>159811.0212995451</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>159008.34547734138</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="11">
         <f t="shared" si="1"/>
         <v>158213.69641335978</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <f t="shared" si="1"/>
         <v>157426.99384001788</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
         <v>156648.1582924095</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <f t="shared" si="1"/>
         <v>155877.11110027719</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>155113.7743800662</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="13">
         <v>37164.465304906</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="13">
         <v>37111.5538049182</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="13">
         <v>37059.171419930302</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="13">
         <v>37007.312858792298</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="13">
         <v>36955.972883265596</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="13">
         <v>36905.1463074942</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="13">
         <v>36854.827997480497</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="13">
         <v>36805.012870566999</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="13">
         <v>36755.695894922603</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="13">
         <v>36706.872089034601</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1">
-      <c r="A10" s="7" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
         <v>199432.48950719251</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <f t="shared" si="2"/>
         <v>198552.33215597359</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <f t="shared" si="2"/>
         <v>197680.97637826699</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <f t="shared" si="2"/>
         <v>196818.33415833738</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>195964.31836060697</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <f t="shared" si="2"/>
         <v>195118.84272085398</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
         <v>194281.82183749837</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>193453.17116297651</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="13">
         <f t="shared" si="2"/>
         <v>192632.80699519979</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="13">
         <f t="shared" si="2"/>
         <v>191820.64646910079</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1">
-      <c r="A11" s="7" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="4">
         <v>14</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="4">
         <v>13.72</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="4">
         <v>13.445600000000001</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="4">
         <v>13.176688</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="4">
         <v>12.913154240000001</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="4">
         <v>12.6548911552</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="4">
         <v>12.401793332096</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="4">
         <v>12.153757465454101</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="4">
         <v>11.910682316145</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="4">
         <v>11.6724686698221</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1359,46 +1329,46 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>8.1449999999999996</v>
       </c>
     </row>
@@ -1406,288 +1376,288 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="14">
         <v>1</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="14">
         <v>1</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="14">
         <v>1</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="14">
         <v>1</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="14">
         <v>1</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <v>6000</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>6000</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="15">
         <v>6000</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>6000</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>6000</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>6000</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>6000</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>6000</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>6000</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>6000</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="15">
         <v>2.63</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <v>2.63</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <v>2.63</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>2.63</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="15">
         <v>2.63</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="15">
         <v>2.63</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="15">
         <v>2.63</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <v>2.63</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="15">
         <v>2.63</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>2.63</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="15">
         <v>2.63</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="15">
         <v>2.63</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="15">
         <v>2.63</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="15">
         <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:L16" si="3">C16</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>5000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1700,7 +1670,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:P13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1709,440 +1679,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>100</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>100</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>100</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>100</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>100</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>100</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>100</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>100</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="9">
         <v>100</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>900</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="10">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>55</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>55</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>55</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>55</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>55</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>55</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>55</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>55</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>55</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>55</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>1000</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="10">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <v>2</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
-      <c r="A7" s="7" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>3500</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>3500</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>3500</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>3500</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>3500</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>3500</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>3500</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>3500</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>3500</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="9">
         <v>3500</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>5</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="10">
         <v>5</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="10">
         <v>5</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>217500</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>202712.96118214715</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>193200.95896868245</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>182947.23311480688</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>174422.34813919102</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>169903.93177030535</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>166166.5208814393</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>162151.1349852829</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>158825.63398896775</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>156503.48252979599</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1">
-      <c r="A10" s="18" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>26792.687779456399</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <v>25731.655474442501</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <v>25042.540975628799</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <v>24303.565067134099</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <v>23687.429092815099</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <v>23353.388636064599</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="13">
         <v>23075.3525171486</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="13">
         <v>22778.991456742599</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="13">
         <v>22531.950046172798</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="13">
         <v>22356.066483806499</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2151,101 +2121,101 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="11">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>244292.68777945641</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>228444.61665658964</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>218243.49994431125</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>207250.79818194098</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>198109.7772320061</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>193257.32040636995</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
         <v>189241.87339858789</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="11">
         <f t="shared" si="1"/>
         <v>184930.1264420255</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="11">
         <f t="shared" si="1"/>
         <v>181357.58403514055</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>178859.54901360249</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1">
-      <c r="A12" s="7" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="4">
         <v>40</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="4">
         <v>39.200000000000003</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="4">
         <v>38.415999999999997</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="4">
         <v>37.647680000000001</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="4">
         <v>36.894726400000003</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="4">
         <v>36.156831871999998</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="4">
         <v>35.433695234559998</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="4">
         <v>34.725021329868802</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="4">
         <v>34.030520903271402</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="4">
         <v>33.349910485206003</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="4">
         <f>L12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>33.349910485206003</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="4">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
         <v>33.349910485206003</v>
       </c>
@@ -2254,453 +2224,453 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.9</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.9</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.9</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="14">
         <f>L13</f>
         <v>0.9</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="14">
         <f>M13</f>
         <v>0.9</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="14">
         <f>N13</f>
         <v>0.9</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="14">
         <f>O13</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="4">
         <v>100</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="4">
         <v>100</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="4">
         <v>100</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="4">
         <v>100</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="4">
         <v>100</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="4">
         <v>100</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="4">
         <v>100</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="4">
         <v>100</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="4">
         <v>100</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>5.69394277454363</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1">
-      <c r="A16" s="7" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="4">
         <v>621.11801242236004</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="4">
         <v>614.90683229813703</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="4">
         <v>608.81987577639802</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="4">
         <v>602.85341614906804</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="4">
         <v>597.00387577639697</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="4">
         <v>591.26781863353995</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="4">
         <v>585.64194330434805</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="4">
         <v>580.12307639105597</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="4">
         <v>574.70816631107596</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="4">
         <v>569.39427745436296</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="14">
         <v>2</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="14">
         <v>2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="14">
         <v>2</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="14">
         <v>2</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="14">
         <v>2</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="14">
         <v>2</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="14">
         <v>2</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="15">
         <v>250</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="15">
         <v>250</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="15">
         <v>250</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="15">
         <v>250</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="15">
         <v>250</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="15">
         <v>250</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="15">
         <v>250</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="15">
         <v>250</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="15">
         <v>250</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <v>250</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="17">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="15">
         <v>0.57030000000000003</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="15">
         <v>0.57030000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2716,7 +2686,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:P17"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2726,608 +2696,608 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>35</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>35</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>35</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="9">
         <v>35</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>35</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <v>35</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>35</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>35</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>35</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="9">
         <v>35</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>4500</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="10">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="10">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="10">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="10">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="12" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="9">
         <v>30</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>28</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>26</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>24</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <v>22</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>20</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>20</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>20</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>20</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>20</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>900</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="10">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>55</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>55</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>55</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>55</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>55</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>55</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>55</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>55</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>55</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>55</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>1000</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="10">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1">
-      <c r="A8" s="12" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <v>2</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="10">
         <v>2</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1">
-      <c r="A9" s="7" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>12.2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>12.2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>12.2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>12.2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="9">
         <v>12.2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>12.2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>12.2</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>12.2</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>12.2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="9">
         <v>12.2</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>4900</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="10">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="10">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1">
-      <c r="A11" s="7" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>3500</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>3500</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>3500</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>3500</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>3500</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>3500</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>3500</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>3500</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>3500</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>3500</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>5</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>5</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>5</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="10">
         <v>5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="10">
         <v>5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="10">
         <v>5</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <v>5</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <v>5</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="11">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>371780</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>266308.21095885558</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>240389.77255347205</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>229353.21174032445</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>220468.57292678603</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>181738.69414989959</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>168247.73962365359</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>161462.13122714593</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
         <v>158670.32128268984</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="11">
         <f t="shared" si="0"/>
         <v>156291.7887547951</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1">
-      <c r="A14" s="18" t="s">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>32254.8488708144</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="13">
         <v>26625.9575081287</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>25263.162136589901</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>24658.162753217599</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <v>24165.787309453699</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <v>22184.210187959401</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <v>21456.1838433782</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="13">
         <v>21063.551925949901</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="13">
         <v>20877.108197241902</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="13">
         <v>20723.0404031451</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
@@ -3336,262 +3306,262 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="11">
         <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>404034.84887081443</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>292934.16846698429</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>265652.93469006196</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="11">
         <f t="shared" si="1"/>
         <v>254011.37449354204</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>244634.36023623974</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="11">
         <f t="shared" si="1"/>
         <v>203922.90433785898</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <f t="shared" si="1"/>
         <v>189703.9234670318</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="11">
         <f t="shared" si="1"/>
         <v>182525.68315309583</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="11">
         <f t="shared" si="1"/>
         <v>179547.42947993174</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="11">
         <f t="shared" si="1"/>
         <v>177014.8291579402</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1">
-      <c r="A16" s="7" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="4">
         <v>2.5</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="4">
         <v>2.4009999999999998</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="4">
         <v>2.3529800000000001</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="4">
         <v>2.3059204000000002</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="4">
         <v>2.2598019919999999</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="4">
         <v>2.2146059521599999</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="4">
         <v>2.1703138331168002</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="4">
         <v>2.1269075564544599</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>50</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>49</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>48</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>47</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>46</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>45</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>44</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>43</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>42</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>41</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <f>L17-1</f>
         <v>40</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <f>M17-1</f>
         <v>39</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <f>N17-1</f>
         <v>38</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <f>O17-1</f>
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>30</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>28</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>26</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>24</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>22</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="9">
         <v>20</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>20</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>20</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="9">
         <v>20</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="9">
         <v>20</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>5.69394277454363</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="4">
         <v>186.33540372670799</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="4">
         <v>172.173913043478</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="4">
         <v>158.29316770186301</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="4">
         <v>144.68481987577599</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="4">
         <v>131.34085267080701</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="4">
         <v>118.25356372670799</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="4">
         <v>117.12838866087</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="4">
         <v>116.024615278211</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="4">
         <v>114.94163326221501</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="4">
         <v>113.87885549087299</v>
       </c>
     </row>
@@ -3599,125 +3569,125 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="14">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>500</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="15">
         <v>500</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="15">
         <v>500</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>500</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>500</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>500</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>500</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="15">
         <v>500</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="15">
         <v>500</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="17">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3728,42 +3698,42 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f t="shared" ref="D24:L24" si="2">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -3775,42 +3745,42 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" ref="D25:L25" si="3">C25</f>
         <v>5000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
@@ -3822,42 +3792,42 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" ref="D26:L26" si="4">C26</f>
         <v>2000</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
@@ -3872,602 +3842,603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="18">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="18">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="18">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="18">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="18">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="18">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="18">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="18">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="18">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="18">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="21">
         <v>0.06</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="22">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="22">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="21">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="22">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="21">
         <v>0.8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="22">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="22">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="21">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="22">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="22">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="21">
         <v>10000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="22">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="22">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="21">
         <v>80</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="22">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>80</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="22">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="21">
         <v>1.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="22">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>1.5</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="22">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="21">
         <v>0.12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="22">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="22">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="23">
         <v>4.5</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="23">
         <v>4.5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="23">
         <v>4.5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="23">
         <v>4.5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="23">
         <v>4.5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="23">
         <v>4.5</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="23">
         <v>4.5</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="23">
         <v>4.5</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="23">
         <v>4.5</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="23">
         <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="26">
         <v>60</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="26">
         <f>C12</f>
         <v>60</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="26">
         <f t="shared" ref="E12:L12" si="9">D12</f>
         <v>60</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="26">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="26">
         <v>65</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="26">
         <f>C13</f>
         <v>65</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="26">
         <f t="shared" ref="E13:L13" si="10">D13</f>
         <v>65</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="26">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
@@ -4482,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4515,7 +4486,7 @@
       <c r="G1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4539,10 +4510,10 @@
       <c r="F2" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4566,10 +4537,10 @@
       <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4593,10 +4564,10 @@
       <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4620,10 +4591,10 @@
       <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4647,10 +4618,10 @@
       <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4674,10 +4645,10 @@
       <c r="F7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4701,10 +4672,10 @@
       <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4728,10 +4699,10 @@
       <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4755,10 +4726,10 @@
       <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>1</v>
       </c>
     </row>
@@ -4782,10 +4753,10 @@
       <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
     </row>

--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EDF1D1-B464-E243-9B5E-8B500003A7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB5C21-4566-6B45-B84B-BDE7D029ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="19840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="83">
   <si>
     <t>单位</t>
   </si>
@@ -81,30 +81,12 @@
     <t>百公里能耗</t>
   </si>
   <si>
-    <t>燃料价格</t>
-  </si>
-  <si>
-    <t>元/L</t>
-  </si>
-  <si>
     <t>低温能耗率</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>充能速度</t>
-  </si>
-  <si>
-    <t>L/小时</t>
-  </si>
-  <si>
-    <t>燃料生命周期排放因子</t>
-  </si>
-  <si>
-    <t>kgCO2/L</t>
-  </si>
-  <si>
     <t>保养费用</t>
   </si>
   <si>
@@ -150,9 +132,6 @@
     <t>车身单位成本</t>
   </si>
   <si>
-    <t>元/kwh</t>
-  </si>
-  <si>
     <t>电池容量</t>
   </si>
   <si>
@@ -162,12 +141,6 @@
     <t>kg/kwh</t>
   </si>
   <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
     <t>燃料电池系统功率</t>
   </si>
   <si>
@@ -186,12 +159,6 @@
     <t>元/kg</t>
   </si>
   <si>
-    <t>kg/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kg</t>
-  </si>
-  <si>
     <t>折现率</t>
   </si>
   <si>
@@ -310,17 +277,30 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>油车载重</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>去程整车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>返程整车运价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,13 +352,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFEBB07A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -428,15 +418,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -449,13 +430,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -489,53 +479,29 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -825,7 +791,7 @@
     <col min="10" max="12" width="11.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -859,20 +825,8 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -909,12 +863,8 @@
       <c r="L2" s="9">
         <v>75570.335300888401</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,12 +901,8 @@
       <c r="L3" s="9">
         <v>62043.439079177799</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,12 +939,8 @@
       <c r="L4" s="10">
         <v>80</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,12 +977,8 @@
       <c r="L5" s="9">
         <v>3500</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1077,12 +1015,8 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1129,158 +1063,142 @@
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
         <f>C2+C3+C7</f>
         <v>162268.0242022865</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="17">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>161440.7783510554</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="17">
         <f t="shared" si="1"/>
         <v>160621.8049583367</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>159811.0212995451</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="17">
         <f t="shared" si="1"/>
         <v>159008.34547734138</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>158213.69641335978</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="17">
         <f t="shared" si="1"/>
         <v>157426.99384001788</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
         <v>156648.1582924095</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
         <v>155877.11110027719</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="17">
         <f t="shared" si="1"/>
         <v>155113.7743800662</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
         <v>37164.465304906</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <v>37111.5538049182</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="17">
         <v>37059.171419930302</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="17">
         <v>37007.312858792298</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="17">
         <v>36955.972883265596</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="17">
         <v>36905.1463074942</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="17">
         <v>36854.827997480497</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="17">
         <v>36805.012870566999</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="17">
         <v>36755.695894922603</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="17">
         <v>36706.872089034601</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="17">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
         <v>199432.48950719251</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <f t="shared" si="2"/>
         <v>198552.33215597359</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <f t="shared" si="2"/>
         <v>197680.97637826699</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <f t="shared" si="2"/>
         <v>196818.33415833738</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="17">
         <f t="shared" si="2"/>
         <v>195964.31836060697</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="17">
         <f t="shared" si="2"/>
         <v>195118.84272085398</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="17">
         <f t="shared" si="2"/>
         <v>194281.82183749837</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="17">
         <f t="shared" si="2"/>
         <v>193453.17116297651</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="17">
         <f t="shared" si="2"/>
         <v>192632.80699519979</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="17">
         <f t="shared" si="2"/>
         <v>191820.64646910079</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1317,360 +1235,198 @@
       <c r="L11" s="4">
         <v>11.6724686698221</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="C13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:L13" si="3">C13</f>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="D14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="G14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="H14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="I14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="J14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="L14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="C14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:L14" si="4">C14</f>
+        <v>5000</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="D15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="F15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="H15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="I15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="J15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="K15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="L15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="M15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="N15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="O15" s="15">
-        <v>2.63</v>
-      </c>
-      <c r="P15" s="15">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:L16" si="3">C16</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:L17" si="4">C17</f>
-        <v>5000</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
         <v>2000</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="5">C18</f>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:L15" si="5">C15</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1678,7 +1434,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1713,25 +1469,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9">
         <v>100</v>
@@ -1763,17 +1507,13 @@
       <c r="L2" s="9">
         <v>100</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10">
         <v>900</v>
@@ -1805,17 +1545,13 @@
       <c r="L3" s="10">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9">
         <v>55</v>
@@ -1847,17 +1583,13 @@
       <c r="L4" s="9">
         <v>55</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10">
         <v>1000</v>
@@ -1889,17 +1621,13 @@
       <c r="L5" s="10">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -1931,12 +1659,8 @@
       <c r="L6" s="10">
         <v>2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1973,14 +1697,10 @@
       <c r="L7" s="9">
         <v>3500</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -2015,163 +1735,147 @@
       <c r="L8" s="10">
         <v>5</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>217500</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>202712.96118214715</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>193200.95896868245</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>182947.23311480688</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="17">
         <f t="shared" si="0"/>
         <v>174422.34813919102</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>169903.93177030535</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>166166.5208814393</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>162151.1349852829</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>158825.63398896775</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>156503.48252979599</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17">
         <v>26792.687779456399</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>25731.655474442501</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>25042.540975628799</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>24303.565067134099</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="17">
         <v>23687.429092815099</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="17">
         <v>23353.388636064599</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="17">
         <v>23075.3525171486</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="17">
         <v>22778.991456742599</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="17">
         <v>22531.950046172798</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="17">
         <v>22356.066483806499</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="17">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>244292.68777945641</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="17">
         <f t="shared" si="1"/>
         <v>228444.61665658964</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="17">
         <f t="shared" si="1"/>
         <v>218243.49994431125</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>207250.79818194098</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="17">
         <f t="shared" si="1"/>
         <v>198109.7772320061</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>193257.32040636995</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <f t="shared" si="1"/>
         <v>189241.87339858789</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
         <v>184930.1264420255</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="17">
         <f t="shared" si="1"/>
         <v>181357.58403514055</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="17">
         <f t="shared" si="1"/>
         <v>178859.54901360249</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>40</v>
@@ -2203,490 +1907,312 @@
       <c r="L12" s="4">
         <v>33.349910485206003</v>
       </c>
-      <c r="M12" s="4">
-        <f>L12</f>
-        <v>33.349910485206003</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12:P12" si="2">M12</f>
-        <v>33.349910485206003</v>
-      </c>
-      <c r="O12" s="4">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+      <c r="K13" s="4">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D15" s="4">
+        <v>614.90683229813703</v>
+      </c>
+      <c r="E15" s="4">
+        <v>608.81987577639802</v>
+      </c>
+      <c r="F15" s="4">
+        <v>602.85341614906804</v>
+      </c>
+      <c r="G15" s="4">
+        <v>597.00387577639697</v>
+      </c>
+      <c r="H15" s="4">
+        <v>591.26781863353995</v>
+      </c>
+      <c r="I15" s="4">
+        <v>585.64194330434805</v>
+      </c>
+      <c r="J15" s="4">
+        <v>580.12307639105597</v>
+      </c>
+      <c r="K15" s="4">
+        <v>574.70816631107596</v>
+      </c>
+      <c r="L15" s="4">
+        <v>569.39427745436296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:L17" si="2">C17</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>33.349910485206003</v>
-      </c>
-      <c r="P12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>33.349910485206003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="M13" s="14">
-        <f>L13</f>
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="14">
-        <f>M13</f>
-        <v>0.9</v>
-      </c>
-      <c r="O13" s="14">
-        <f>N13</f>
-        <v>0.9</v>
-      </c>
-      <c r="P13" s="14">
-        <f>O13</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4">
-        <v>100</v>
-      </c>
-      <c r="F14" s="4">
-        <v>100</v>
-      </c>
-      <c r="G14" s="4">
-        <v>100</v>
-      </c>
-      <c r="H14" s="4">
-        <v>100</v>
-      </c>
-      <c r="I14" s="4">
-        <v>100</v>
-      </c>
-      <c r="J14" s="4">
-        <v>100</v>
-      </c>
-      <c r="K14" s="4">
-        <v>100</v>
-      </c>
-      <c r="L14" s="4">
-        <v>100</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5.69394277454363</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D16" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E16" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F16" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G16" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H16" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I16" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J16" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K16" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L16" s="4">
-        <v>569.39427745436296</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="14">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="14">
-        <v>2</v>
-      </c>
-      <c r="G17" s="14">
-        <v>2</v>
-      </c>
-      <c r="H17" s="14">
-        <v>2</v>
-      </c>
-      <c r="I17" s="14">
-        <v>2</v>
-      </c>
-      <c r="J17" s="14">
-        <v>2</v>
-      </c>
-      <c r="K17" s="14">
-        <v>2</v>
-      </c>
-      <c r="L17" s="14">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="15">
-        <v>250</v>
-      </c>
-      <c r="D18" s="15">
-        <v>250</v>
-      </c>
-      <c r="E18" s="15">
-        <v>250</v>
-      </c>
-      <c r="F18" s="15">
-        <v>250</v>
-      </c>
-      <c r="G18" s="15">
-        <v>250</v>
-      </c>
-      <c r="H18" s="15">
-        <v>250</v>
-      </c>
-      <c r="I18" s="15">
-        <v>250</v>
-      </c>
-      <c r="J18" s="15">
-        <v>250</v>
-      </c>
-      <c r="K18" s="15">
-        <v>250</v>
-      </c>
-      <c r="L18" s="15">
-        <v>250</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:L18" si="3">C18</f>
+        <v>5000</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0.57030000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="3">C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="4">C21</f>
-        <v>5000</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:L19" si="4">C19</f>
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" ref="D22:L22" si="5">C22</f>
-        <v>2000</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2695,7 +2221,7 @@
     <col min="3" max="3" width="11.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2730,25 +2256,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9">
         <v>35</v>
@@ -2780,17 +2294,13 @@
       <c r="L2" s="9">
         <v>35</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10">
         <v>4500</v>
@@ -2822,17 +2332,13 @@
       <c r="L3" s="10">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9">
         <v>30</v>
@@ -2864,17 +2370,13 @@
       <c r="L4" s="9">
         <v>20</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10">
         <v>900</v>
@@ -2906,17 +2408,13 @@
       <c r="L5" s="10">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9">
         <v>55</v>
@@ -2948,17 +2446,13 @@
       <c r="L6" s="9">
         <v>55</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10">
         <v>1000</v>
@@ -2990,17 +2484,13 @@
       <c r="L7" s="10">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -3032,12 +2522,8 @@
       <c r="L8" s="10">
         <v>2</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3074,17 +2560,13 @@
       <c r="L9" s="9">
         <v>12.2</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10">
         <v>4900</v>
@@ -3116,12 +2598,8 @@
       <c r="L10" s="10">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3158,17 +2636,13 @@
       <c r="L11" s="9">
         <v>3500</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10">
         <v>5</v>
@@ -3200,158 +2674,142 @@
       <c r="L12" s="10">
         <v>5</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>371780</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="17">
         <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>266308.21095885558</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>240389.77255347205</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>229353.21174032445</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>220468.57292678603</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>181738.69414989959</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="17">
         <f t="shared" si="0"/>
         <v>168247.73962365359</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="17">
         <f t="shared" si="0"/>
         <v>161462.13122714593</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="17">
         <f t="shared" si="0"/>
         <v>158670.32128268984</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>156291.7887547951</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
         <v>32254.8488708144</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <v>26625.9575081287</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="17">
         <v>25263.162136589901</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>24658.162753217599</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="17">
         <v>24165.787309453699</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="17">
         <v>22184.210187959401</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="17">
         <v>21456.1838433782</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="17">
         <v>21063.551925949901</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="17">
         <v>20877.108197241902</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="17">
         <v>20723.0404031451</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="17">
         <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>404034.84887081443</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
         <v>292934.16846698429</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="17">
         <f t="shared" si="1"/>
         <v>265652.93469006196</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="17">
         <f t="shared" si="1"/>
         <v>254011.37449354204</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="17">
         <f t="shared" si="1"/>
         <v>244634.36023623974</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="17">
         <f t="shared" si="1"/>
         <v>203922.90433785898</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="17">
         <f t="shared" si="1"/>
         <v>189703.9234670318</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="17">
         <f t="shared" si="1"/>
         <v>182525.68315309583</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="17">
         <f t="shared" si="1"/>
         <v>179547.42947993174</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="17">
         <f t="shared" si="1"/>
         <v>177014.8291579402</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3388,452 +2846,302 @@
       <c r="L16" s="4">
         <v>2.1269075564544599</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9">
+        <v>26</v>
+      </c>
+      <c r="F17" s="9">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9">
+        <v>22</v>
+      </c>
+      <c r="H17" s="9">
+        <v>20</v>
+      </c>
+      <c r="I17" s="9">
+        <v>20</v>
+      </c>
+      <c r="J17" s="9">
+        <v>20</v>
+      </c>
+      <c r="K17" s="9">
+        <v>20</v>
+      </c>
+      <c r="L17" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>186.33540372670799</v>
+      </c>
+      <c r="D19" s="4">
+        <v>172.173913043478</v>
+      </c>
+      <c r="E19" s="4">
+        <v>158.29316770186301</v>
+      </c>
+      <c r="F19" s="4">
+        <v>144.68481987577599</v>
+      </c>
+      <c r="G19" s="4">
+        <v>131.34085267080701</v>
+      </c>
+      <c r="H19" s="4">
+        <v>118.25356372670799</v>
+      </c>
+      <c r="I19" s="4">
+        <v>117.12838866087</v>
+      </c>
+      <c r="J19" s="4">
+        <v>116.024615278211</v>
+      </c>
+      <c r="K19" s="4">
+        <v>114.94163326221501</v>
+      </c>
+      <c r="L19" s="4">
+        <v>113.87885549087299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
-        <v>45</v>
-      </c>
-      <c r="I17" s="4">
-        <v>44</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43</v>
-      </c>
-      <c r="K17" s="4">
-        <v>42</v>
-      </c>
-      <c r="L17" s="4">
-        <v>41</v>
-      </c>
-      <c r="M17" s="5">
-        <f>L17-1</f>
-        <v>40</v>
-      </c>
-      <c r="N17" s="5">
-        <f>M17-1</f>
-        <v>39</v>
-      </c>
-      <c r="O17" s="5">
-        <f>N17-1</f>
-        <v>38</v>
-      </c>
-      <c r="P17" s="5">
-        <f>O17-1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="9">
-        <v>30</v>
-      </c>
-      <c r="D18" s="9">
-        <v>28</v>
-      </c>
-      <c r="E18" s="9">
-        <v>26</v>
-      </c>
-      <c r="F18" s="9">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9">
-        <v>20</v>
-      </c>
-      <c r="I18" s="9">
-        <v>20</v>
-      </c>
-      <c r="J18" s="9">
-        <v>20</v>
-      </c>
-      <c r="K18" s="9">
-        <v>20</v>
-      </c>
-      <c r="L18" s="9">
-        <v>20</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L19" s="4">
-        <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
-        <v>186.33540372670799</v>
-      </c>
-      <c r="D20" s="4">
-        <v>172.173913043478</v>
-      </c>
-      <c r="E20" s="4">
-        <v>158.29316770186301</v>
-      </c>
-      <c r="F20" s="4">
-        <v>144.68481987577599</v>
-      </c>
-      <c r="G20" s="4">
-        <v>131.34085267080701</v>
-      </c>
-      <c r="H20" s="4">
-        <v>118.25356372670799</v>
-      </c>
-      <c r="I20" s="4">
-        <v>117.12838866087</v>
-      </c>
-      <c r="J20" s="4">
-        <v>116.024615278211</v>
-      </c>
-      <c r="K20" s="4">
-        <v>114.94163326221501</v>
-      </c>
-      <c r="L20" s="4">
-        <v>113.87885549087299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="15">
-        <v>500</v>
-      </c>
-      <c r="D22" s="15">
-        <v>500</v>
-      </c>
-      <c r="E22" s="15">
-        <v>500</v>
-      </c>
-      <c r="F22" s="15">
-        <v>500</v>
-      </c>
-      <c r="G22" s="15">
-        <v>500</v>
-      </c>
-      <c r="H22" s="15">
-        <v>500</v>
-      </c>
-      <c r="I22" s="15">
-        <v>500</v>
-      </c>
-      <c r="J22" s="15">
-        <v>500</v>
-      </c>
-      <c r="K22" s="15">
-        <v>500</v>
-      </c>
-      <c r="L22" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P23" s="17">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="C21" s="4">
         <v>0.2</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="2">C24</f>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="2">C21</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
         <v>5000</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="3">C25</f>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="3">C22</f>
         <v>5000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
         <v>2000</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" ref="D26:L26" si="4">C26</f>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:L23" si="4">C23</f>
         <v>2000</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L23" s="5">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3843,618 +3151,617 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="11" style="19"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.06</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.8</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>12</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="5">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
         <v>80</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>80</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
         <v>1.5</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="5">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>1.5</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="5">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.12</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="5">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="14">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14">
+        <f>C12</f>
+        <v>70</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" ref="E12:L12" si="9">D12</f>
+        <v>70</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="14">
         <v>65</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="D11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="E11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="F11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="G11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="H11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="I11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="J11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="K11" s="23">
-        <v>4.5</v>
-      </c>
-      <c r="L11" s="23">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="26">
-        <v>60</v>
-      </c>
-      <c r="D12" s="26">
-        <f>C12</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="26">
-        <f t="shared" ref="E12:L12" si="9">D12</f>
-        <v>60</v>
-      </c>
-      <c r="F12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="J12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="K12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="L12" s="26">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="26">
-        <v>65</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="D13" s="14">
         <f>C13</f>
         <v>65</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="14">
         <f t="shared" ref="E13:L13" si="10">D13</f>
         <v>65</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="14">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4464,325 +3771,434 @@
     <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" ht="17" thickBot="1">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="16">
+        <v>138.03100000000001</v>
+      </c>
+      <c r="C2" s="16">
+        <f>D2/B2/K2</f>
+        <v>4.3468496207373706</v>
+      </c>
+      <c r="D2" s="16">
+        <f t="shared" ref="D2:D11" si="0">MAX(I2:J2)</f>
+        <v>600</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>600</v>
+      </c>
+      <c r="J2" s="18">
+        <v>600</v>
+      </c>
+      <c r="K2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" thickBot="1">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1206.865</v>
+      </c>
+      <c r="C3" s="16">
+        <f t="shared" ref="C3:C11" si="1">D3/B3/K3</f>
+        <v>3.314372361448878</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>4000</v>
+      </c>
+      <c r="J3" s="18">
+        <v>4000</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" thickBot="1">
+      <c r="A4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16">
+        <v>794</v>
+      </c>
+      <c r="C4" s="16">
+        <f t="shared" si="1"/>
+        <v>3.2745591939546599</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2600</v>
+      </c>
+      <c r="J4" s="18">
+        <v>2600</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4164.7110000000002</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="1"/>
+        <v>3.2415214405033144</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>13500</v>
+      </c>
+      <c r="J5" s="18">
+        <v>13500</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19" thickBot="1">
+      <c r="A6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" s="16">
+        <v>264.16399999999999</v>
+      </c>
+      <c r="C6" s="16">
+        <f t="shared" si="1"/>
+        <v>3.0284217380112355</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>800</v>
+      </c>
+      <c r="J6" s="18">
+        <v>800</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19" thickBot="1">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="16">
+        <v>949.08900000000006</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="1"/>
+        <v>2.9501975051865523</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2800</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2800</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19" thickBot="1">
+      <c r="A8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B8" s="16">
+        <v>2121.7370000000001</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.7336093021896679</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>5800</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>5800</v>
+      </c>
+      <c r="J8" s="18">
+        <v>5800</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" thickBot="1">
+      <c r="A9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>4164.7110000000002</v>
-      </c>
-      <c r="C2">
-        <f>D2/B2</f>
-        <v>3.2415214405033144</v>
-      </c>
-      <c r="D2" s="2">
-        <v>13500</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B9" s="16">
+        <v>1363.981</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="1"/>
+        <v>2.6393329525851166</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B3">
-        <v>949.08900000000006</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">D3/B3</f>
-        <v>2.9501975051865523</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2800</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="18">
+        <v>3600</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19" thickBot="1">
+      <c r="A10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="16">
+        <v>271.34699999999998</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="1"/>
+        <v>2.5797226429627012</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>700</v>
+      </c>
+      <c r="J10" s="18">
+        <v>700</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="A11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="16">
         <v>591.85400000000004</v>
       </c>
-      <c r="C4">
+      <c r="C11" s="16">
+        <f t="shared" si="1"/>
+        <v>2.5344088237977607</v>
+      </c>
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
-        <v>2.5344088237977607</v>
-      </c>
-      <c r="D4" s="2">
         <v>1500</v>
       </c>
-      <c r="E4">
+      <c r="E11" s="16">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>271.34699999999998</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.5797226429627012</v>
-      </c>
-      <c r="D5" s="2">
-        <v>700</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6">
-        <v>264.16399999999999</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3.0284217380112355</v>
-      </c>
-      <c r="D6" s="2">
-        <v>800</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>1206.865</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>3.314372361448878</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8">
-        <v>2121.7370000000001</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2.7336093021896679</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5800</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>1363.981</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2.6393329525851166</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3600</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10">
-        <v>794</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3.2745591939546599</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2600</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11">
-        <v>138.03100000000001</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4.3468496207373706</v>
-      </c>
-      <c r="D11" s="2">
-        <v>600</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+    <sortCondition descending="1" ref="C2:C11"/>
+  </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB5C21-4566-6B45-B84B-BDE7D029ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="19840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20917" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -19,20 +13,7 @@
     <sheet name="运营参数" sheetId="5" r:id="rId4"/>
     <sheet name="线路" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -237,70 +218,70 @@
     <t>是否货运</t>
   </si>
   <si>
+    <t>是否固定趟数</t>
+  </si>
+  <si>
+    <t>每日固定趟数</t>
+  </si>
+  <si>
+    <t>去程整车</t>
+  </si>
+  <si>
+    <t>返程整车运价</t>
+  </si>
+  <si>
+    <t>油车载重</t>
+  </si>
+  <si>
+    <t>广州-深圳</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>上海-北京</t>
+  </si>
+  <si>
+    <t>上海-武汉</t>
+  </si>
+  <si>
     <t>广州-乌鲁木齐</t>
   </si>
   <si>
-    <t>是</t>
+    <t>哈尔滨-吉林</t>
   </si>
   <si>
     <t>上海-郑州</t>
   </si>
   <si>
+    <t>北京-广州</t>
+  </si>
+  <si>
+    <t>上海-西安</t>
+  </si>
+  <si>
+    <t>哈尔滨-长春</t>
+  </si>
+  <si>
     <t>哈尔滨-沈阳</t>
-  </si>
-  <si>
-    <t>哈尔滨-长春</t>
-  </si>
-  <si>
-    <t>哈尔滨-吉林</t>
-  </si>
-  <si>
-    <t>上海-北京</t>
-  </si>
-  <si>
-    <t>北京-广州</t>
-  </si>
-  <si>
-    <t>上海-西安</t>
-  </si>
-  <si>
-    <t>上海-武汉</t>
-  </si>
-  <si>
-    <t>广州-深圳</t>
-  </si>
-  <si>
-    <t>是否固定趟数</t>
-  </si>
-  <si>
-    <t>每日固定趟数</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>油车载重</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>去程整车</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>返程整车运价</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,7 +294,20 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -321,7 +315,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -329,7 +322,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +330,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -347,43 +338,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFC000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -407,26 +711,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,9 +732,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -452,9 +998,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,57 +1022,89 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -772,134 +1362,134 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="5" max="8" width="11.83203125"/>
-    <col min="10" max="12" width="11.83203125"/>
+    <col min="5" max="8" width="11.8359375"/>
+    <col min="10" max="12" width="11.8359375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="7">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="7">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="7">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="14">
         <v>82724.5851231087</v>
       </c>
-      <c r="D2" s="9">
-        <v>81897.339271877601</v>
-      </c>
-      <c r="E2" s="9">
-        <v>81078.365879158897</v>
-      </c>
-      <c r="F2" s="9">
-        <v>80267.582220367301</v>
-      </c>
-      <c r="G2" s="9">
-        <v>79464.906398163599</v>
-      </c>
-      <c r="H2" s="9">
-        <v>78670.257334181995</v>
-      </c>
-      <c r="I2" s="9">
-        <v>77883.554760840096</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="D2" s="14">
+        <v>81897.3392718776</v>
+      </c>
+      <c r="E2" s="14">
+        <v>81078.3658791589</v>
+      </c>
+      <c r="F2" s="14">
+        <v>80267.5822203673</v>
+      </c>
+      <c r="G2" s="14">
+        <v>79464.9063981636</v>
+      </c>
+      <c r="H2" s="14">
+        <v>78670.257334182</v>
+      </c>
+      <c r="I2" s="14">
+        <v>77883.5547608401</v>
+      </c>
+      <c r="J2" s="14">
         <v>77104.7192132317</v>
       </c>
-      <c r="K2" s="9">
-        <v>76333.672021099395</v>
-      </c>
-      <c r="L2" s="9">
-        <v>75570.335300888401</v>
+      <c r="K2" s="14">
+        <v>76333.6720210994</v>
+      </c>
+      <c r="L2" s="14">
+        <v>75570.3353008884</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="D3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="E3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="F3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="G3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="H3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="I3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="J3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="K3" s="9">
-        <v>62043.439079177799</v>
-      </c>
-      <c r="L3" s="9">
-        <v>62043.439079177799</v>
+      <c r="C3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="D3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="E3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="F3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="G3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="H3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="I3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="J3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="K3" s="14">
+        <v>62043.4390791778</v>
+      </c>
+      <c r="L3" s="14">
+        <v>62043.4390791778</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -909,34 +1499,34 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="15">
         <v>80</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="15">
         <v>80</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="15">
         <v>80</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="15">
         <v>80</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="15">
         <v>80</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="15">
         <v>80</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="15">
         <v>80</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="15">
         <v>80</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="15">
         <v>80</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="15">
         <v>80</v>
       </c>
     </row>
@@ -947,34 +1537,34 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="14">
         <v>3500</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="14">
         <v>3500</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="14">
         <v>3500</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="14">
         <v>3500</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="14">
         <v>3500</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="14">
         <v>3500</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="14">
         <v>3500</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="14">
         <v>3500</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="14">
         <v>3500</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="14">
         <v>3500</v>
       </c>
     </row>
@@ -982,141 +1572,141 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="8">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="15">
         <f>3500*5</f>
         <v>17500</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="15">
         <f t="shared" ref="D7:L7" si="0">3500*5</f>
         <v>17500</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="17">
         <f>C2+C3+C7</f>
-        <v>162268.0242022865</v>
+        <v>162268.024202286</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
-        <v>161440.7783510554</v>
+        <v>161440.778351055</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="1"/>
-        <v>160621.8049583367</v>
+        <v>160621.804958337</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>159811.0212995451</v>
+        <v>159811.021299545</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>159008.34547734138</v>
+        <v>159008.345477341</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>158213.69641335978</v>
+        <v>158213.69641336</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="1"/>
-        <v>157426.99384001788</v>
+        <v>157426.993840018</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>156648.1582924095</v>
+        <v>156648.158292409</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>155877.11110027719</v>
+        <v>155877.111100277</v>
       </c>
       <c r="L8" s="17">
         <f t="shared" si="1"/>
-        <v>155113.7743800662</v>
+        <v>155113.774380066</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="17">
@@ -1126,28 +1716,28 @@
         <v>37111.5538049182</v>
       </c>
       <c r="E9" s="17">
-        <v>37059.171419930302</v>
+        <v>37059.1714199303</v>
       </c>
       <c r="F9" s="17">
-        <v>37007.312858792298</v>
+        <v>37007.3128587923</v>
       </c>
       <c r="G9" s="17">
-        <v>36955.972883265596</v>
+        <v>36955.9728832656</v>
       </c>
       <c r="H9" s="17">
         <v>36905.1463074942</v>
       </c>
       <c r="I9" s="17">
-        <v>36854.827997480497</v>
+        <v>36854.8279974805</v>
       </c>
       <c r="J9" s="17">
-        <v>36805.012870566999</v>
+        <v>36805.012870567</v>
       </c>
       <c r="K9" s="17">
-        <v>36755.695894922603</v>
+        <v>36755.6958949226</v>
       </c>
       <c r="L9" s="17">
-        <v>36706.872089034601</v>
+        <v>36706.8720890346</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1159,43 +1749,43 @@
       </c>
       <c r="C10" s="17">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
-        <v>199432.48950719251</v>
+        <v>199432.489507193</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="2"/>
-        <v>198552.33215597359</v>
+        <v>198552.332155974</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="2"/>
-        <v>197680.97637826699</v>
+        <v>197680.976378267</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="2"/>
-        <v>196818.33415833738</v>
+        <v>196818.334158337</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>195964.31836060697</v>
+        <v>195964.318360607</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="2"/>
-        <v>195118.84272085398</v>
+        <v>195118.842720854</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>194281.82183749837</v>
+        <v>194281.821837498</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="2"/>
-        <v>193453.17116297651</v>
+        <v>193453.171162977</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" si="2"/>
-        <v>192632.80699519979</v>
+        <v>192632.8069952</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="2"/>
-        <v>191820.64646910079</v>
+        <v>191820.646469101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1205,34 +1795,34 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>13.72</v>
       </c>
-      <c r="E11" s="4">
-        <v>13.445600000000001</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="8">
+        <v>13.4456</v>
+      </c>
+      <c r="F11" s="8">
         <v>13.176688</v>
       </c>
-      <c r="G11" s="4">
-        <v>12.913154240000001</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="8">
+        <v>12.91315424</v>
+      </c>
+      <c r="H11" s="8">
         <v>12.6548911552</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="8">
         <v>12.401793332096</v>
       </c>
-      <c r="J11" s="4">
-        <v>12.153757465454101</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="J11" s="8">
+        <v>12.1537574654541</v>
+      </c>
+      <c r="K11" s="8">
         <v>11.910682316145</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="8">
         <v>11.6724686698221</v>
       </c>
     </row>
@@ -1240,233 +1830,234 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>1</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>0.2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <f t="shared" ref="D13:L13" si="3">C13</f>
         <v>0.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="9">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>5000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <f t="shared" ref="D14:L14" si="4">C14</f>
         <v>5000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="9">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>2000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <f t="shared" ref="D15:L15" si="5">C15</f>
         <v>2000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="9">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:L11"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.3359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="7">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="7">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="7">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7">
         <v>2030</v>
       </c>
     </row>
@@ -1474,189 +2065,189 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="14">
         <v>100</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="14">
         <v>100</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="14">
         <v>100</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14">
         <v>100</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <v>100</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="14">
         <v>100</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="14">
         <v>100</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="14">
         <v>100</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="14">
         <v>100</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>900</v>
       </c>
-      <c r="D3" s="10">
-        <v>774.34350596224499</v>
-      </c>
-      <c r="E3" s="10">
-        <v>699.26192640775298</v>
-      </c>
-      <c r="F3" s="10">
-        <v>614.94506608887696</v>
-      </c>
-      <c r="G3" s="10">
-        <v>546.37677780696004</v>
-      </c>
-      <c r="H3" s="10">
-        <v>516.55385551465599</v>
-      </c>
-      <c r="I3" s="10">
-        <v>493.39921527331001</v>
-      </c>
-      <c r="J3" s="10">
-        <v>466.46797102233597</v>
-      </c>
-      <c r="K3" s="10">
-        <v>445.55844157477901</v>
-      </c>
-      <c r="L3" s="10">
-        <v>433.90523863231101</v>
+      <c r="D3" s="15">
+        <v>774.343505962245</v>
+      </c>
+      <c r="E3" s="15">
+        <v>699.261926407753</v>
+      </c>
+      <c r="F3" s="15">
+        <v>614.945066088877</v>
+      </c>
+      <c r="G3" s="15">
+        <v>546.37677780696</v>
+      </c>
+      <c r="H3" s="15">
+        <v>516.553855514656</v>
+      </c>
+      <c r="I3" s="15">
+        <v>493.39921527331</v>
+      </c>
+      <c r="J3" s="15">
+        <v>466.467971022336</v>
+      </c>
+      <c r="K3" s="15">
+        <v>445.558441574779</v>
+      </c>
+      <c r="L3" s="15">
+        <v>433.905238632311</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>55</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>55</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="14">
         <v>55</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14">
         <v>55</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <v>55</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="14">
         <v>55</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="14">
         <v>55</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="14">
         <v>55</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="14">
         <v>55</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="14">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="15">
         <v>1000</v>
       </c>
-      <c r="D5" s="10">
-        <v>979.80555078111502</v>
-      </c>
-      <c r="E5" s="10">
-        <v>961.58878479915597</v>
-      </c>
-      <c r="F5" s="10">
-        <v>945.02478641744699</v>
-      </c>
-      <c r="G5" s="10">
-        <v>929.86063962268202</v>
-      </c>
-      <c r="H5" s="10">
-        <v>915.89587471672496</v>
-      </c>
-      <c r="I5" s="10">
-        <v>902.96908503734801</v>
-      </c>
-      <c r="J5" s="10">
-        <v>890.94852620953895</v>
-      </c>
-      <c r="K5" s="10">
-        <v>879.72536210445298</v>
-      </c>
-      <c r="L5" s="10">
-        <v>869.20871515059002</v>
+      <c r="D5" s="15">
+        <v>979.805550781115</v>
+      </c>
+      <c r="E5" s="15">
+        <v>961.588784799156</v>
+      </c>
+      <c r="F5" s="15">
+        <v>945.024786417447</v>
+      </c>
+      <c r="G5" s="15">
+        <v>929.860639622682</v>
+      </c>
+      <c r="H5" s="15">
+        <v>915.895874716725</v>
+      </c>
+      <c r="I5" s="15">
+        <v>902.969085037348</v>
+      </c>
+      <c r="J5" s="15">
+        <v>890.948526209539</v>
+      </c>
+      <c r="K5" s="15">
+        <v>879.725362104453</v>
+      </c>
+      <c r="L5" s="15">
+        <v>869.20871515059</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="15">
         <v>2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="15">
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="15">
         <v>2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="15">
         <v>2</v>
       </c>
     </row>
@@ -1664,83 +2255,83 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="14">
         <v>3500</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="14">
         <v>3500</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="14">
         <v>3500</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="14">
         <v>3500</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="14">
         <v>3500</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="14">
         <v>3500</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="14">
         <v>3500</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="14">
         <v>3500</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="14">
         <v>3500</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="15">
         <v>5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="15">
         <v>5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="15">
         <v>5</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <v>5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="15">
         <v>5</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="15">
         <v>5</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="17">
@@ -1749,77 +2340,77 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>202712.96118214715</v>
+        <v>202712.961182147</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>193200.95896868245</v>
+        <v>193200.958968682</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>182947.23311480688</v>
+        <v>182947.233114807</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>174422.34813919102</v>
+        <v>174422.348139191</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>169903.93177030535</v>
+        <v>169903.931770305</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>166166.5208814393</v>
+        <v>166166.520881439</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>162151.1349852829</v>
+        <v>162151.134985283</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="0"/>
-        <v>158825.63398896775</v>
+        <v>158825.633988968</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="0"/>
-        <v>156503.48252979599</v>
+        <v>156503.482529796</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>26792.687779456399</v>
+        <v>26792.6877794564</v>
       </c>
       <c r="D10" s="17">
-        <v>25731.655474442501</v>
+        <v>25731.6554744425</v>
       </c>
       <c r="E10" s="17">
-        <v>25042.540975628799</v>
+        <v>25042.5409756288</v>
       </c>
       <c r="F10" s="17">
-        <v>24303.565067134099</v>
+        <v>24303.5650671341</v>
       </c>
       <c r="G10" s="17">
-        <v>23687.429092815099</v>
+        <v>23687.4290928151</v>
       </c>
       <c r="H10" s="17">
-        <v>23353.388636064599</v>
+        <v>23353.3886360646</v>
       </c>
       <c r="I10" s="17">
         <v>23075.3525171486</v>
       </c>
       <c r="J10" s="17">
-        <v>22778.991456742599</v>
+        <v>22778.9914567426</v>
       </c>
       <c r="K10" s="17">
-        <v>22531.950046172798</v>
+        <v>22531.9500461728</v>
       </c>
       <c r="L10" s="17">
-        <v>22356.066483806499</v>
+        <v>22356.0664838065</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1831,156 +2422,165 @@
       </c>
       <c r="C11" s="17">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
-        <v>244292.68777945641</v>
+        <v>244292.687779456</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="1"/>
-        <v>228444.61665658964</v>
+        <v>228444.61665659</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="1"/>
-        <v>218243.49994431125</v>
+        <v>218243.499944311</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="1"/>
-        <v>207250.79818194098</v>
+        <v>207250.798181941</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>198109.7772320061</v>
+        <v>198109.777232006</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>193257.32040636995</v>
+        <v>193257.32040637</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="1"/>
-        <v>189241.87339858789</v>
+        <v>189241.873398588</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>184930.1264420255</v>
+        <v>184930.126442026</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>181357.58403514055</v>
+        <v>181357.584035141</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="1"/>
-        <v>178859.54901360249</v>
+        <v>178859.549013602</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E12" s="4">
-        <v>38.415999999999997</v>
-      </c>
-      <c r="F12" s="4">
-        <v>37.647680000000001</v>
-      </c>
-      <c r="G12" s="4">
-        <v>36.894726400000003</v>
-      </c>
-      <c r="H12" s="4">
-        <v>36.156831871999998</v>
-      </c>
-      <c r="I12" s="4">
-        <v>35.433695234559998</v>
-      </c>
-      <c r="J12" s="4">
-        <v>34.725021329868802</v>
-      </c>
-      <c r="K12" s="4">
-        <v>34.030520903271402</v>
-      </c>
-      <c r="L12" s="4">
-        <v>33.349910485206003</v>
+      <c r="C12" s="8">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12*0.98</f>
+        <v>24.5</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
+        <v>24.01</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>23.5298</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>23.059204</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>22.59801992</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>22.1460595216</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>21.703138331168</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
+        <v>21.2690755645446</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="2"/>
+        <v>20.8436940532537</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>100</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>100</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <v>100</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="8">
         <v>100</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="8">
         <v>100</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="8">
         <v>100</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="8">
         <v>100</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="8">
         <v>100</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>6.2111801242236</v>
       </c>
-      <c r="D14" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D14" s="8">
+        <v>6.14906832298137</v>
+      </c>
+      <c r="E14" s="8">
+        <v>6.08819875776398</v>
+      </c>
+      <c r="F14" s="8">
         <v>6.02853416149068</v>
       </c>
-      <c r="G14" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="8">
+        <v>5.97003875776397</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5.9126781863354</v>
+      </c>
+      <c r="I14" s="8">
         <v>5.85641943304348</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="8">
         <v>5.80123076391056</v>
       </c>
-      <c r="K14" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="8">
+        <v>5.74708166311076</v>
+      </c>
+      <c r="L14" s="8">
         <v>5.69394277454363</v>
       </c>
     </row>
@@ -1988,538 +2588,539 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D15" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E15" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F15" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G15" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H15" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I15" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J15" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K15" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L15" s="4">
-        <v>569.39427745436296</v>
+      <c r="C15" s="8">
+        <v>621.11801242236</v>
+      </c>
+      <c r="D15" s="8">
+        <v>614.906832298137</v>
+      </c>
+      <c r="E15" s="8">
+        <v>608.819875776398</v>
+      </c>
+      <c r="F15" s="8">
+        <v>602.853416149068</v>
+      </c>
+      <c r="G15" s="8">
+        <v>597.003875776397</v>
+      </c>
+      <c r="H15" s="8">
+        <v>591.26781863354</v>
+      </c>
+      <c r="I15" s="8">
+        <v>585.641943304348</v>
+      </c>
+      <c r="J15" s="8">
+        <v>580.123076391056</v>
+      </c>
+      <c r="K15" s="8">
+        <v>574.708166311076</v>
+      </c>
+      <c r="L15" s="8">
+        <v>569.394277454363</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>2</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>2</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <v>0.2</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:L17" si="2">C17</f>
+      <c r="D17" s="9">
+        <f t="shared" ref="D17:L17" si="3">C17</f>
         <v>0.2</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="2"/>
+      <c r="E17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
+      <c r="F17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="2"/>
+      <c r="G17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
+      <c r="H17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="2"/>
+      <c r="I17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="2"/>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
+      <c r="K17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="2"/>
+      <c r="L17" s="9">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>5000</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="3">C18</f>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:L18" si="4">C18</f>
         <v>5000</v>
       </c>
-      <c r="E18" s="5">
-        <f t="shared" si="3"/>
+      <c r="E18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="3"/>
+      <c r="F18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="3"/>
+      <c r="G18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="3"/>
+      <c r="H18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" si="3"/>
+      <c r="I18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="3"/>
+      <c r="J18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="3"/>
+      <c r="K18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L18" s="5">
-        <f t="shared" si="3"/>
+      <c r="L18" s="9">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <v>2000</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:L19" si="4">C19</f>
+      <c r="D19" s="9">
+        <f t="shared" ref="D19:L19" si="5">C19</f>
         <v>2000</v>
       </c>
-      <c r="E19" s="5">
-        <f t="shared" si="4"/>
+      <c r="E19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="4"/>
+      <c r="F19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="4"/>
+      <c r="G19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="4"/>
+      <c r="H19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" si="4"/>
+      <c r="I19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="4"/>
+      <c r="J19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="4"/>
+      <c r="K19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L19" s="5">
-        <f t="shared" si="4"/>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125"/>
+    <col min="1" max="1" width="21.3359375" customWidth="1"/>
+    <col min="3" max="3" width="11.8359375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="7">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="7">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="7">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="14">
         <v>35</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="14">
         <v>35</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="14">
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="14">
         <v>35</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <v>35</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="14">
         <v>35</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="14">
         <v>35</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="14">
         <v>35</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="14">
         <v>35</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>4500</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="15">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="10">
-        <v>1961.4312034524901</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="15">
+        <v>1961.43120345249</v>
+      </c>
+      <c r="F3" s="15">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="15">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="15">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="10">
-        <v>780.43547988886803</v>
-      </c>
-      <c r="J3" s="10">
-        <v>682.17625668872699</v>
-      </c>
-      <c r="K3" s="10">
-        <v>659.55560949800599</v>
-      </c>
-      <c r="L3" s="10">
-        <v>639.95709350887205</v>
+      <c r="I3" s="15">
+        <v>780.435479888868</v>
+      </c>
+      <c r="J3" s="15">
+        <v>682.176256688727</v>
+      </c>
+      <c r="K3" s="15">
+        <v>659.555609498006</v>
+      </c>
+      <c r="L3" s="15">
+        <v>639.957093508872</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>30</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>28</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="14">
         <v>26</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="14">
         <v>24</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <v>22</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="14">
         <v>20</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="14">
         <v>20</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="14">
         <v>20</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="14">
         <v>20</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="15">
         <v>900</v>
       </c>
-      <c r="D5" s="10">
-        <v>774.34350596224499</v>
-      </c>
-      <c r="E5" s="10">
-        <v>699.26192640775298</v>
-      </c>
-      <c r="F5" s="10">
-        <v>614.94506608887696</v>
-      </c>
-      <c r="G5" s="10">
-        <v>546.37677780696004</v>
-      </c>
-      <c r="H5" s="10">
-        <v>516.55385551465599</v>
-      </c>
-      <c r="I5" s="10">
-        <v>493.39921527331001</v>
-      </c>
-      <c r="J5" s="10">
-        <v>466.46797102233597</v>
-      </c>
-      <c r="K5" s="10">
-        <v>445.55844157477901</v>
-      </c>
-      <c r="L5" s="10">
-        <v>433.90523863231101</v>
+      <c r="D5" s="15">
+        <v>774.343505962245</v>
+      </c>
+      <c r="E5" s="15">
+        <v>699.261926407753</v>
+      </c>
+      <c r="F5" s="15">
+        <v>614.945066088877</v>
+      </c>
+      <c r="G5" s="15">
+        <v>546.37677780696</v>
+      </c>
+      <c r="H5" s="15">
+        <v>516.553855514656</v>
+      </c>
+      <c r="I5" s="15">
+        <v>493.39921527331</v>
+      </c>
+      <c r="J5" s="15">
+        <v>466.467971022336</v>
+      </c>
+      <c r="K5" s="15">
+        <v>445.558441574779</v>
+      </c>
+      <c r="L5" s="15">
+        <v>433.905238632311</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="14">
         <v>55</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="14">
         <v>55</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="14">
         <v>55</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="14">
         <v>55</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="14">
         <v>55</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="14">
         <v>55</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="14">
         <v>55</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="14">
         <v>55</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="14">
         <v>55</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="14">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="15">
         <v>1000</v>
       </c>
-      <c r="D7" s="10">
-        <v>979.80555078111502</v>
-      </c>
-      <c r="E7" s="10">
-        <v>961.58878479915597</v>
-      </c>
-      <c r="F7" s="10">
-        <v>945.02478641744699</v>
-      </c>
-      <c r="G7" s="10">
-        <v>929.86063962268202</v>
-      </c>
-      <c r="H7" s="10">
-        <v>915.89587471672496</v>
-      </c>
-      <c r="I7" s="10">
-        <v>902.96908503734801</v>
-      </c>
-      <c r="J7" s="10">
-        <v>890.94852620953895</v>
-      </c>
-      <c r="K7" s="10">
-        <v>879.72536210445298</v>
-      </c>
-      <c r="L7" s="10">
-        <v>869.20871515059002</v>
+      <c r="D7" s="15">
+        <v>979.805550781115</v>
+      </c>
+      <c r="E7" s="15">
+        <v>961.588784799156</v>
+      </c>
+      <c r="F7" s="15">
+        <v>945.024786417447</v>
+      </c>
+      <c r="G7" s="15">
+        <v>929.860639622682</v>
+      </c>
+      <c r="H7" s="15">
+        <v>915.895874716725</v>
+      </c>
+      <c r="I7" s="15">
+        <v>902.969085037348</v>
+      </c>
+      <c r="J7" s="15">
+        <v>890.948526209539</v>
+      </c>
+      <c r="K7" s="15">
+        <v>879.725362104453</v>
+      </c>
+      <c r="L7" s="15">
+        <v>869.20871515059</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="15">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="15">
         <v>2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2527,159 +3128,159 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="14">
         <v>12.2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="14">
         <v>12.2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="14">
         <v>12.2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="14">
         <v>12.2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="14">
         <v>12.2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="14">
         <v>12.2</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="14">
         <v>12.2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="14">
         <v>12.2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="14">
         <v>12.2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="14">
         <v>12.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="15">
         <v>4900</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="15">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="10">
-        <v>2482.3036080431302</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2355.7698962539498</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2257.1873974662799</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1446.7371875369599</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1167.0421449154701</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1045.2676179954501</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="E10" s="15">
+        <v>2482.30360804313</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2355.76989625395</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2257.18739746628</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1446.73718753696</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1167.04214491547</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1045.26761799545</v>
+      </c>
+      <c r="K10" s="15">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="10">
-        <v>991.98582317815305</v>
+      <c r="L10" s="15">
+        <v>991.985823178153</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="14">
         <v>3500</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="14">
         <v>3500</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="14">
         <v>3500</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="14">
         <v>3500</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="14">
         <v>3500</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="14">
         <v>3500</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="14">
         <v>3500</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="14">
         <v>3500</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="14">
         <v>3500</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="14">
         <v>3500</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="15">
         <v>5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="15">
         <v>5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="15">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="15">
         <v>5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="15">
         <v>5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="15">
         <v>5</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="15">
         <v>5</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="15">
         <v>5</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="17">
@@ -2688,46 +3289,46 @@
       </c>
       <c r="D13" s="17">
         <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
-        <v>266308.21095885558</v>
+        <v>266308.210958856</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>240389.77255347205</v>
+        <v>240389.772553472</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>229353.21174032445</v>
+        <v>229353.211740324</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="0"/>
-        <v>220468.57292678603</v>
+        <v>220468.572926786</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>181738.69414989959</v>
+        <v>181738.6941499</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>168247.73962365359</v>
+        <v>168247.739623654</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="0"/>
-        <v>161462.13122714593</v>
+        <v>161462.131227146</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="0"/>
-        <v>158670.32128268984</v>
+        <v>158670.32128269</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="0"/>
-        <v>156291.7887547951</v>
+        <v>156291.788754795</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="17">
@@ -2737,25 +3338,25 @@
         <v>26625.9575081287</v>
       </c>
       <c r="E14" s="17">
-        <v>25263.162136589901</v>
+        <v>25263.1621365899</v>
       </c>
       <c r="F14" s="17">
-        <v>24658.162753217599</v>
+        <v>24658.1627532176</v>
       </c>
       <c r="G14" s="17">
-        <v>24165.787309453699</v>
+        <v>24165.7873094537</v>
       </c>
       <c r="H14" s="17">
-        <v>22184.210187959401</v>
+        <v>22184.2101879594</v>
       </c>
       <c r="I14" s="17">
         <v>21456.1838433782</v>
       </c>
       <c r="J14" s="17">
-        <v>21063.551925949901</v>
+        <v>21063.5519259499</v>
       </c>
       <c r="K14" s="17">
-        <v>20877.108197241902</v>
+        <v>20877.1081972419</v>
       </c>
       <c r="L14" s="17">
         <v>20723.0404031451</v>
@@ -2770,156 +3371,156 @@
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:L15" si="1">C14+C13</f>
-        <v>404034.84887081443</v>
+        <v>404034.848870814</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="1"/>
-        <v>292934.16846698429</v>
+        <v>292934.168466984</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>265652.93469006196</v>
+        <v>265652.934690062</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>254011.37449354204</v>
+        <v>254011.374493542</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="1"/>
-        <v>244634.36023623974</v>
+        <v>244634.36023624</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>203922.90433785898</v>
+        <v>203922.904337859</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="1"/>
-        <v>189703.9234670318</v>
+        <v>189703.923467032</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="1"/>
-        <v>182525.68315309583</v>
+        <v>182525.683153096</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>179547.42947993174</v>
+        <v>179547.429479932</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="1"/>
-        <v>177014.8291579402</v>
+        <v>177014.82915794</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>2.5</v>
       </c>
-      <c r="E16" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.4009999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2.3529800000000001</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.3059204000000002</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.2598019919999999</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2.2146059521599999</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2.1703138331168002</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2.1269075564544599</v>
+      <c r="E16" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2.401</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2.35298</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2.3059204</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2.259801992</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2.21460595216</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.1703138331168</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2.12690755645446</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="14">
         <v>30</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="14">
         <v>28</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="14">
         <v>26</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="14">
         <v>24</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="14">
         <v>22</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="14">
         <v>20</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="14">
         <v>20</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="14">
         <v>20</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="14">
         <v>20</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="8">
+        <v>6.14906832298137</v>
+      </c>
+      <c r="E18" s="8">
+        <v>6.08819875776398</v>
+      </c>
+      <c r="F18" s="8">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="8">
+        <v>5.97003875776397</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5.9126781863354</v>
+      </c>
+      <c r="I18" s="8">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="8">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="8">
+        <v>5.74708166311076</v>
+      </c>
+      <c r="L18" s="8">
         <v>5.69394277454363</v>
       </c>
     </row>
@@ -2927,76 +3528,76 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
-        <v>186.33540372670799</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="C19" s="8">
+        <v>186.335403726708</v>
+      </c>
+      <c r="D19" s="8">
         <v>172.173913043478</v>
       </c>
-      <c r="E19" s="4">
-        <v>158.29316770186301</v>
-      </c>
-      <c r="F19" s="4">
-        <v>144.68481987577599</v>
-      </c>
-      <c r="G19" s="4">
-        <v>131.34085267080701</v>
-      </c>
-      <c r="H19" s="4">
-        <v>118.25356372670799</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="E19" s="8">
+        <v>158.293167701863</v>
+      </c>
+      <c r="F19" s="8">
+        <v>144.684819875776</v>
+      </c>
+      <c r="G19" s="8">
+        <v>131.340852670807</v>
+      </c>
+      <c r="H19" s="8">
+        <v>118.253563726708</v>
+      </c>
+      <c r="I19" s="8">
         <v>117.12838866087</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="8">
         <v>116.024615278211</v>
       </c>
-      <c r="K19" s="4">
-        <v>114.94163326221501</v>
-      </c>
-      <c r="L19" s="4">
-        <v>113.87885549087299</v>
+      <c r="K19" s="8">
+        <v>114.941633262215</v>
+      </c>
+      <c r="L19" s="8">
+        <v>113.878855490873</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K20" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1.1000000000000001</v>
+      <c r="C20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3006,42 +3607,42 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <v>0.2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="9">
         <f t="shared" ref="D21:L21" si="2">C21</f>
         <v>0.2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -3053,42 +3654,42 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <v>5000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="9">
         <f t="shared" ref="D22:L22" si="3">C22</f>
         <v>5000</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="9">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
@@ -3100,98 +3701,99 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <v>2000</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="9">
         <f t="shared" ref="D23:L23" si="4">C23</f>
         <v>2000</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="9">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="7">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="7">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="7">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7">
         <v>2030</v>
       </c>
     </row>
@@ -3202,42 +3804,42 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>0.06</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="9">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -3249,42 +3851,42 @@
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3296,42 +3898,42 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>0.8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="9">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -3343,42 +3945,42 @@
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>12</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -3390,42 +3992,42 @@
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3437,42 +4039,42 @@
       <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>10000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="9">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
@@ -3484,42 +4086,42 @@
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>80</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>80</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="9">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
@@ -3531,42 +4133,42 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>1.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>1.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="9">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
@@ -3578,42 +4180,42 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>0.12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="9">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
@@ -3625,153 +4227,154 @@
       <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>4.5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>4.5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>4.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>4.5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>4.5</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>4.5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>4.5</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>4.5</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>4.5</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>70</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>C12</f>
         <v>70</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f t="shared" ref="E12:L12" si="9">D12</f>
         <v>70</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>65</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>C13</f>
         <v>65</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" ref="E13:L13" si="10">D13</f>
         <v>65</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625"/>
     <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3791,414 +4394,414 @@
         <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="16">
-        <v>138.03100000000001</v>
-      </c>
-      <c r="C2" s="16">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" ht="18.35" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3">
+        <v>138.031</v>
+      </c>
+      <c r="C2" s="3">
         <f>D2/B2/K2</f>
-        <v>4.3468496207373706</v>
-      </c>
-      <c r="D2" s="16">
+        <v>4.34684962073737</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D11" si="0">MAX(I2:J2)</f>
         <v>600</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="6">
         <v>600</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="6">
         <v>600</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19" thickBot="1">
-      <c r="A3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="16">
+    <row r="3" ht="18.35" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3">
         <v>1206.865</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:C11" si="1">D3/B3/K3</f>
-        <v>3.314372361448878</v>
-      </c>
-      <c r="D3" s="16">
+        <v>3.31437236144888</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="6">
         <v>4000</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="6">
         <v>4000</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19" thickBot="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" ht="18.35" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="3">
         <v>794</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>3.2745591939546599</v>
-      </c>
-      <c r="D4" s="16">
+        <v>3.27455919395466</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="6">
         <v>2600</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="6">
         <v>2600</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19" thickBot="1">
-      <c r="A5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="16">
-        <v>4164.7110000000002</v>
-      </c>
-      <c r="C5" s="16">
+    <row r="5" ht="18.35" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4164.711</v>
+      </c>
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>3.2415214405033144</v>
-      </c>
-      <c r="D5" s="16">
+        <v>3.24152144050331</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>13500</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="6">
         <v>13500</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="6">
         <v>13500</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19" thickBot="1">
-      <c r="A6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="16">
-        <v>264.16399999999999</v>
-      </c>
-      <c r="C6" s="16">
+    <row r="6" ht="18.35" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3">
+        <v>264.164</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>3.0284217380112355</v>
-      </c>
-      <c r="D6" s="16">
+        <v>3.02842173801124</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="F6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="6">
         <v>800</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="6">
         <v>800</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19" thickBot="1">
-      <c r="A7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="16">
-        <v>949.08900000000006</v>
-      </c>
-      <c r="C7" s="16">
+    <row r="7" ht="18.35" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3">
+        <v>949.089</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>2.9501975051865523</v>
-      </c>
-      <c r="D7" s="16">
+        <v>2.95019750518655</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2800</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2800</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.35" spans="1:11">
+      <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2800</v>
-      </c>
-      <c r="J7" s="18">
-        <v>2800</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19" thickBot="1">
-      <c r="A8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2121.7370000000001</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="3">
+        <v>2121.737</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>2.7336093021896679</v>
-      </c>
-      <c r="D8" s="16">
+        <v>2.73360930218967</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="F8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="6">
         <v>5800</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="6">
         <v>5800</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19" thickBot="1">
-      <c r="A9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="16">
+    <row r="9" ht="18.35" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3">
         <v>1363.981</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>2.6393329525851166</v>
-      </c>
-      <c r="D9" s="16">
+        <v>2.63933295258512</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="6">
         <v>3600</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="6">
         <v>3600</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19" thickBot="1">
-      <c r="A10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="16">
-        <v>271.34699999999998</v>
-      </c>
-      <c r="C10" s="16">
+    <row r="10" ht="18.35" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3">
+        <v>271.347</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>2.5797226429627012</v>
-      </c>
-      <c r="D10" s="16">
+        <v>2.5797226429627</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="6">
         <v>700</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="6">
         <v>700</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18">
-      <c r="A11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="16">
-        <v>591.85400000000004</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="11" ht="17.6" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3">
+        <v>591.854</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>2.5344088237977607</v>
-      </c>
-      <c r="D11" s="16">
+        <v>2.53440882379776</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="6">
         <v>1500</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="6">
         <v>1500</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="D16" s="2"/>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+      <c r="D17" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
-    <sortCondition descending="1" ref="C2:C11"/>
+  <sortState ref="A2:H11">
+    <sortCondition ref="C2:C11" descending="1"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FAEF21-155E-1E42-B30B-46DC5F471CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20917" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -13,7 +19,20 @@
     <sheet name="运营参数" sheetId="5" r:id="rId4"/>
     <sheet name="线路" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -272,16 +291,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +309,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -301,6 +317,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,6 +325,7 @@
       <sz val="14"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -315,6 +333,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,6 +341,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -330,6 +350,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,356 +359,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -743,251 +435,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,61 +500,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1362,26 +768,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="5" max="8" width="11.8359375"/>
-    <col min="10" max="12" width="11.8359375"/>
+    <col min="5" max="8" width="11.83203125"/>
+    <col min="10" max="12" width="11.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1427,31 +833,31 @@
         <v>82724.5851231087</v>
       </c>
       <c r="D2" s="14">
-        <v>81897.3392718776</v>
+        <v>81897.339271877601</v>
       </c>
       <c r="E2" s="14">
-        <v>81078.3658791589</v>
+        <v>81078.365879158897</v>
       </c>
       <c r="F2" s="14">
-        <v>80267.5822203673</v>
+        <v>80267.582220367301</v>
       </c>
       <c r="G2" s="14">
-        <v>79464.9063981636</v>
+        <v>79464.906398163599</v>
       </c>
       <c r="H2" s="14">
-        <v>78670.257334182</v>
+        <v>78670.257334181995</v>
       </c>
       <c r="I2" s="14">
-        <v>77883.5547608401</v>
+        <v>77883.554760840096</v>
       </c>
       <c r="J2" s="14">
         <v>77104.7192132317</v>
       </c>
       <c r="K2" s="14">
-        <v>76333.6720210994</v>
+        <v>76333.672021099395</v>
       </c>
       <c r="L2" s="14">
-        <v>75570.3353008884</v>
+        <v>75570.335300888401</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1462,34 +868,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="D3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="E3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="F3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="G3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="H3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="I3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="J3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="K3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
       <c r="L3" s="14">
-        <v>62043.4390791778</v>
+        <v>62043.439079177799</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1663,43 +1069,43 @@
       </c>
       <c r="C8" s="17">
         <f>C2+C3+C7</f>
-        <v>162268.024202286</v>
+        <v>162268.0242022865</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
-        <v>161440.778351055</v>
+        <v>161440.7783510554</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="1"/>
-        <v>160621.804958337</v>
+        <v>160621.8049583367</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>159811.021299545</v>
+        <v>159811.0212995451</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>159008.345477341</v>
+        <v>159008.34547734138</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>158213.69641336</v>
+        <v>158213.69641335978</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="1"/>
-        <v>157426.993840018</v>
+        <v>157426.99384001788</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>156648.158292409</v>
+        <v>156648.1582924095</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>155877.111100277</v>
+        <v>155877.11110027719</v>
       </c>
       <c r="L8" s="17">
         <f t="shared" si="1"/>
-        <v>155113.774380066</v>
+        <v>155113.7743800662</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1716,28 +1122,28 @@
         <v>37111.5538049182</v>
       </c>
       <c r="E9" s="17">
-        <v>37059.1714199303</v>
+        <v>37059.171419930302</v>
       </c>
       <c r="F9" s="17">
-        <v>37007.3128587923</v>
+        <v>37007.312858792298</v>
       </c>
       <c r="G9" s="17">
-        <v>36955.9728832656</v>
+        <v>36955.972883265596</v>
       </c>
       <c r="H9" s="17">
         <v>36905.1463074942</v>
       </c>
       <c r="I9" s="17">
-        <v>36854.8279974805</v>
+        <v>36854.827997480497</v>
       </c>
       <c r="J9" s="17">
-        <v>36805.012870567</v>
+        <v>36805.012870566999</v>
       </c>
       <c r="K9" s="17">
-        <v>36755.6958949226</v>
+        <v>36755.695894922603</v>
       </c>
       <c r="L9" s="17">
-        <v>36706.8720890346</v>
+        <v>36706.872089034601</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1749,43 +1155,43 @@
       </c>
       <c r="C10" s="17">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
-        <v>199432.489507193</v>
+        <v>199432.48950719251</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="2"/>
-        <v>198552.332155974</v>
+        <v>198552.33215597359</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="2"/>
-        <v>197680.976378267</v>
+        <v>197680.97637826699</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="2"/>
-        <v>196818.334158337</v>
+        <v>196818.33415833738</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>195964.318360607</v>
+        <v>195964.31836060697</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="2"/>
-        <v>195118.842720854</v>
+        <v>195118.84272085398</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>194281.821837498</v>
+        <v>194281.82183749837</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="2"/>
-        <v>193453.171162977</v>
+        <v>193453.17116297651</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" si="2"/>
-        <v>192632.8069952</v>
+        <v>192632.80699519979</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="2"/>
-        <v>191820.646469101</v>
+        <v>191820.64646910079</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1802,13 +1208,13 @@
         <v>13.72</v>
       </c>
       <c r="E11" s="8">
-        <v>13.4456</v>
+        <v>13.445600000000001</v>
       </c>
       <c r="F11" s="8">
         <v>13.176688</v>
       </c>
       <c r="G11" s="8">
-        <v>12.91315424</v>
+        <v>12.913154240000001</v>
       </c>
       <c r="H11" s="8">
         <v>12.6548911552</v>
@@ -1817,7 +1223,7 @@
         <v>12.401793332096</v>
       </c>
       <c r="J11" s="8">
-        <v>12.1537574654541</v>
+        <v>12.153757465454101</v>
       </c>
       <c r="K11" s="8">
         <v>11.910682316145</v>
@@ -2006,23 +1412,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.3359375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2110,31 +1515,31 @@
         <v>900</v>
       </c>
       <c r="D3" s="15">
-        <v>774.343505962245</v>
+        <v>774.34350596224499</v>
       </c>
       <c r="E3" s="15">
-        <v>699.261926407753</v>
+        <v>699.26192640775298</v>
       </c>
       <c r="F3" s="15">
-        <v>614.945066088877</v>
+        <v>614.94506608887696</v>
       </c>
       <c r="G3" s="15">
-        <v>546.37677780696</v>
+        <v>546.37677780696004</v>
       </c>
       <c r="H3" s="15">
-        <v>516.553855514656</v>
+        <v>516.55385551465599</v>
       </c>
       <c r="I3" s="15">
-        <v>493.39921527331</v>
+        <v>493.39921527331001</v>
       </c>
       <c r="J3" s="15">
-        <v>466.467971022336</v>
+        <v>466.46797102233597</v>
       </c>
       <c r="K3" s="15">
-        <v>445.558441574779</v>
+        <v>445.55844157477901</v>
       </c>
       <c r="L3" s="15">
-        <v>433.905238632311</v>
+        <v>433.90523863231101</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2186,31 +1591,31 @@
         <v>1000</v>
       </c>
       <c r="D5" s="15">
-        <v>979.805550781115</v>
+        <v>979.80555078111502</v>
       </c>
       <c r="E5" s="15">
-        <v>961.588784799156</v>
+        <v>961.58878479915597</v>
       </c>
       <c r="F5" s="15">
-        <v>945.024786417447</v>
+        <v>945.02478641744699</v>
       </c>
       <c r="G5" s="15">
-        <v>929.860639622682</v>
+        <v>929.86063962268202</v>
       </c>
       <c r="H5" s="15">
-        <v>915.895874716725</v>
+        <v>915.89587471672496</v>
       </c>
       <c r="I5" s="15">
-        <v>902.969085037348</v>
+        <v>902.96908503734801</v>
       </c>
       <c r="J5" s="15">
-        <v>890.948526209539</v>
+        <v>890.94852620953895</v>
       </c>
       <c r="K5" s="15">
-        <v>879.725362104453</v>
+        <v>879.72536210445298</v>
       </c>
       <c r="L5" s="15">
-        <v>869.20871515059</v>
+        <v>869.20871515059002</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2340,39 +1745,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>202712.961182147</v>
+        <v>202712.96118214715</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>193200.958968682</v>
+        <v>193200.95896868245</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>182947.233114807</v>
+        <v>182947.23311480688</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>174422.348139191</v>
+        <v>174422.34813919102</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>169903.931770305</v>
+        <v>169903.93177030535</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>166166.520881439</v>
+        <v>166166.5208814393</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>162151.134985283</v>
+        <v>162151.1349852829</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="0"/>
-        <v>158825.633988968</v>
+        <v>158825.63398896775</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="0"/>
-        <v>156503.482529796</v>
+        <v>156503.48252979599</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2383,34 +1788,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>26792.6877794564</v>
+        <v>26792.687779456399</v>
       </c>
       <c r="D10" s="17">
-        <v>25731.6554744425</v>
+        <v>25731.655474442501</v>
       </c>
       <c r="E10" s="17">
-        <v>25042.5409756288</v>
+        <v>25042.540975628799</v>
       </c>
       <c r="F10" s="17">
-        <v>24303.5650671341</v>
+        <v>24303.565067134099</v>
       </c>
       <c r="G10" s="17">
-        <v>23687.4290928151</v>
+        <v>23687.429092815099</v>
       </c>
       <c r="H10" s="17">
-        <v>23353.3886360646</v>
+        <v>23353.388636064599</v>
       </c>
       <c r="I10" s="17">
         <v>23075.3525171486</v>
       </c>
       <c r="J10" s="17">
-        <v>22778.9914567426</v>
+        <v>22778.991456742599</v>
       </c>
       <c r="K10" s="17">
-        <v>22531.9500461728</v>
+        <v>22531.950046172798</v>
       </c>
       <c r="L10" s="17">
-        <v>22356.0664838065</v>
+        <v>22356.066483806499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2422,43 +1827,43 @@
       </c>
       <c r="C11" s="17">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
-        <v>244292.687779456</v>
+        <v>244292.68777945641</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="1"/>
-        <v>228444.61665659</v>
+        <v>228444.61665658964</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="1"/>
-        <v>218243.499944311</v>
+        <v>218243.49994431125</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="1"/>
-        <v>207250.798181941</v>
+        <v>207250.79818194098</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>198109.777232006</v>
+        <v>198109.7772320061</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>193257.32040637</v>
+        <v>193257.32040636995</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="1"/>
-        <v>189241.873398588</v>
+        <v>189241.87339858789</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>184930.126442026</v>
+        <v>184930.1264420255</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>181357.584035141</v>
+        <v>181357.58403514055</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="1"/>
-        <v>178859.549013602</v>
+        <v>178859.54901360249</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2477,35 +1882,35 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>24.01</v>
+        <v>24.009999999999998</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>23.5298</v>
+        <v>23.529799999999998</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>23.059204</v>
+        <v>23.059203999999998</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="2"/>
-        <v>22.59801992</v>
+        <v>22.598019919999999</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>22.1460595216</v>
+        <v>22.146059521599998</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>21.703138331168</v>
+        <v>21.703138331167999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="2"/>
-        <v>21.2690755645446</v>
+        <v>21.269075564544639</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>20.8436940532537</v>
+        <v>20.843694053253746</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2516,34 +1921,34 @@
         <v>21</v>
       </c>
       <c r="C13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L13" s="8">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2557,19 +1962,19 @@
         <v>6.2111801242236</v>
       </c>
       <c r="D14" s="8">
-        <v>6.14906832298137</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E14" s="8">
-        <v>6.08819875776398</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F14" s="8">
         <v>6.02853416149068</v>
       </c>
       <c r="G14" s="8">
-        <v>5.97003875776397</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H14" s="8">
-        <v>5.9126781863354</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I14" s="8">
         <v>5.85641943304348</v>
@@ -2578,7 +1983,7 @@
         <v>5.80123076391056</v>
       </c>
       <c r="K14" s="8">
-        <v>5.74708166311076</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L14" s="8">
         <v>5.69394277454363</v>
@@ -2592,34 +1997,44 @@
         <v>7</v>
       </c>
       <c r="C15" s="8">
-        <v>621.11801242236</v>
+        <f>C14*C13</f>
+        <v>496.89440993788799</v>
       </c>
       <c r="D15" s="8">
-        <v>614.906832298137</v>
+        <f t="shared" ref="D15:L15" si="3">D14*D13</f>
+        <v>491.92546583850964</v>
       </c>
       <c r="E15" s="8">
-        <v>608.819875776398</v>
+        <f t="shared" si="3"/>
+        <v>487.05590062111838</v>
       </c>
       <c r="F15" s="8">
-        <v>602.853416149068</v>
+        <f t="shared" si="3"/>
+        <v>482.28273291925439</v>
       </c>
       <c r="G15" s="8">
-        <v>597.003875776397</v>
+        <f t="shared" si="3"/>
+        <v>477.60310062111762</v>
       </c>
       <c r="H15" s="8">
-        <v>591.26781863354</v>
+        <f t="shared" si="3"/>
+        <v>473.01425490683198</v>
       </c>
       <c r="I15" s="8">
-        <v>585.641943304348</v>
+        <f t="shared" si="3"/>
+        <v>468.51355464347841</v>
       </c>
       <c r="J15" s="8">
-        <v>580.123076391056</v>
+        <f t="shared" si="3"/>
+        <v>464.0984611128448</v>
       </c>
       <c r="K15" s="8">
-        <v>574.708166311076</v>
+        <f t="shared" si="3"/>
+        <v>459.76653304886077</v>
       </c>
       <c r="L15" s="8">
-        <v>569.394277454363</v>
+        <f t="shared" si="3"/>
+        <v>455.51542196349038</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2671,39 +2086,39 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17:L17" si="3">C17</f>
+        <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>0.2</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2718,39 +2133,39 @@
         <v>5000</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" ref="D18:L18" si="4">C18</f>
+        <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>5000</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
@@ -2765,61 +2180,60 @@
         <v>2000</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" ref="D19:L19" si="5">C19</f>
+        <f t="shared" ref="D19:L19" si="6">C19</f>
         <v>2000</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.3359375" customWidth="1"/>
-    <col min="3" max="3" width="11.8359375"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2910,7 +2324,7 @@
         <v>2391.98927250304</v>
       </c>
       <c r="E3" s="15">
-        <v>1961.43120345249</v>
+        <v>1961.4312034524901</v>
       </c>
       <c r="F3" s="15">
         <v>1840.04031182783</v>
@@ -2922,16 +2336,16 @@
         <v>1014.53934665188</v>
       </c>
       <c r="I3" s="15">
-        <v>780.435479888868</v>
+        <v>780.43547988886803</v>
       </c>
       <c r="J3" s="15">
-        <v>682.176256688727</v>
+        <v>682.17625668872699</v>
       </c>
       <c r="K3" s="15">
-        <v>659.555609498006</v>
+        <v>659.55560949800599</v>
       </c>
       <c r="L3" s="15">
-        <v>639.957093508872</v>
+        <v>639.95709350887205</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2983,31 +2397,31 @@
         <v>900</v>
       </c>
       <c r="D5" s="15">
-        <v>774.343505962245</v>
+        <v>774.34350596224499</v>
       </c>
       <c r="E5" s="15">
-        <v>699.261926407753</v>
+        <v>699.26192640775298</v>
       </c>
       <c r="F5" s="15">
-        <v>614.945066088877</v>
+        <v>614.94506608887696</v>
       </c>
       <c r="G5" s="15">
-        <v>546.37677780696</v>
+        <v>546.37677780696004</v>
       </c>
       <c r="H5" s="15">
-        <v>516.553855514656</v>
+        <v>516.55385551465599</v>
       </c>
       <c r="I5" s="15">
-        <v>493.39921527331</v>
+        <v>493.39921527331001</v>
       </c>
       <c r="J5" s="15">
-        <v>466.467971022336</v>
+        <v>466.46797102233597</v>
       </c>
       <c r="K5" s="15">
-        <v>445.558441574779</v>
+        <v>445.55844157477901</v>
       </c>
       <c r="L5" s="15">
-        <v>433.905238632311</v>
+        <v>433.90523863231101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3059,31 +2473,31 @@
         <v>1000</v>
       </c>
       <c r="D7" s="15">
-        <v>979.805550781115</v>
+        <v>979.80555078111502</v>
       </c>
       <c r="E7" s="15">
-        <v>961.588784799156</v>
+        <v>961.58878479915597</v>
       </c>
       <c r="F7" s="15">
-        <v>945.024786417447</v>
+        <v>945.02478641744699</v>
       </c>
       <c r="G7" s="15">
-        <v>929.860639622682</v>
+        <v>929.86063962268202</v>
       </c>
       <c r="H7" s="15">
-        <v>915.895874716725</v>
+        <v>915.89587471672496</v>
       </c>
       <c r="I7" s="15">
-        <v>902.969085037348</v>
+        <v>902.96908503734801</v>
       </c>
       <c r="J7" s="15">
-        <v>890.948526209539</v>
+        <v>890.94852620953895</v>
       </c>
       <c r="K7" s="15">
-        <v>879.725362104453</v>
+        <v>879.72536210445298</v>
       </c>
       <c r="L7" s="15">
-        <v>869.20871515059</v>
+        <v>869.20871515059002</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3176,28 +2590,28 @@
         <v>2920.35718593309</v>
       </c>
       <c r="E10" s="15">
-        <v>2482.30360804313</v>
+        <v>2482.3036080431302</v>
       </c>
       <c r="F10" s="15">
-        <v>2355.76989625395</v>
+        <v>2355.7698962539498</v>
       </c>
       <c r="G10" s="15">
-        <v>2257.18739746628</v>
+        <v>2257.1873974662799</v>
       </c>
       <c r="H10" s="15">
-        <v>1446.73718753696</v>
+        <v>1446.7371875369599</v>
       </c>
       <c r="I10" s="15">
-        <v>1167.04214491547</v>
+        <v>1167.0421449154701</v>
       </c>
       <c r="J10" s="15">
-        <v>1045.26761799545</v>
+        <v>1045.2676179954501</v>
       </c>
       <c r="K10" s="15">
         <v>1016.79641698969</v>
       </c>
       <c r="L10" s="15">
-        <v>991.985823178153</v>
+        <v>991.98582317815305</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3289,39 +2703,39 @@
       </c>
       <c r="D13" s="17">
         <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
-        <v>266308.210958856</v>
+        <v>266308.21095885558</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>240389.772553472</v>
+        <v>240389.77255347205</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>229353.211740324</v>
+        <v>229353.21174032445</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="0"/>
-        <v>220468.572926786</v>
+        <v>220468.57292678603</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>181738.6941499</v>
+        <v>181738.69414989959</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>168247.739623654</v>
+        <v>168247.73962365359</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="0"/>
-        <v>161462.131227146</v>
+        <v>161462.13122714593</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="0"/>
-        <v>158670.32128269</v>
+        <v>158670.32128268984</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="0"/>
-        <v>156291.788754795</v>
+        <v>156291.7887547951</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3338,25 +2752,25 @@
         <v>26625.9575081287</v>
       </c>
       <c r="E14" s="17">
-        <v>25263.1621365899</v>
+        <v>25263.162136589901</v>
       </c>
       <c r="F14" s="17">
-        <v>24658.1627532176</v>
+        <v>24658.162753217599</v>
       </c>
       <c r="G14" s="17">
-        <v>24165.7873094537</v>
+        <v>24165.787309453699</v>
       </c>
       <c r="H14" s="17">
-        <v>22184.2101879594</v>
+        <v>22184.210187959401</v>
       </c>
       <c r="I14" s="17">
         <v>21456.1838433782</v>
       </c>
       <c r="J14" s="17">
-        <v>21063.5519259499</v>
+        <v>21063.551925949901</v>
       </c>
       <c r="K14" s="17">
-        <v>20877.1081972419</v>
+        <v>20877.108197241902</v>
       </c>
       <c r="L14" s="17">
         <v>20723.0404031451</v>
@@ -3371,43 +2785,43 @@
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:L15" si="1">C14+C13</f>
-        <v>404034.848870814</v>
+        <v>404034.84887081443</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="1"/>
-        <v>292934.168466984</v>
+        <v>292934.16846698429</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>265652.934690062</v>
+        <v>265652.93469006196</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>254011.374493542</v>
+        <v>254011.37449354204</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="1"/>
-        <v>244634.36023624</v>
+        <v>244634.36023623974</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>203922.904337859</v>
+        <v>203922.90433785898</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="1"/>
-        <v>189703.923467032</v>
+        <v>189703.9234670318</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="1"/>
-        <v>182525.683153096</v>
+        <v>182525.68315309583</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>179547.429479932</v>
+        <v>179547.42947993174</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="1"/>
-        <v>177014.82915794</v>
+        <v>177014.8291579402</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3424,28 +2838,28 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F16" s="8">
-        <v>2.401</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="G16" s="8">
-        <v>2.35298</v>
+        <v>2.3529800000000001</v>
       </c>
       <c r="H16" s="8">
-        <v>2.3059204</v>
+        <v>2.3059204000000002</v>
       </c>
       <c r="I16" s="8">
-        <v>2.259801992</v>
+        <v>2.2598019919999999</v>
       </c>
       <c r="J16" s="8">
-        <v>2.21460595216</v>
+        <v>2.2146059521599999</v>
       </c>
       <c r="K16" s="8">
-        <v>2.1703138331168</v>
+        <v>2.1703138331168002</v>
       </c>
       <c r="L16" s="8">
-        <v>2.12690755645446</v>
+        <v>2.1269075564544599</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3497,19 +2911,19 @@
         <v>6.2111801242236</v>
       </c>
       <c r="D18" s="8">
-        <v>6.14906832298137</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E18" s="8">
-        <v>6.08819875776398</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F18" s="8">
         <v>6.02853416149068</v>
       </c>
       <c r="G18" s="8">
-        <v>5.97003875776397</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H18" s="8">
-        <v>5.9126781863354</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I18" s="8">
         <v>5.85641943304348</v>
@@ -3518,7 +2932,7 @@
         <v>5.80123076391056</v>
       </c>
       <c r="K18" s="8">
-        <v>5.74708166311076</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L18" s="8">
         <v>5.69394277454363</v>
@@ -3532,22 +2946,22 @@
         <v>7</v>
       </c>
       <c r="C19" s="8">
-        <v>186.335403726708</v>
+        <v>186.33540372670799</v>
       </c>
       <c r="D19" s="8">
         <v>172.173913043478</v>
       </c>
       <c r="E19" s="8">
-        <v>158.293167701863</v>
+        <v>158.29316770186301</v>
       </c>
       <c r="F19" s="8">
-        <v>144.684819875776</v>
+        <v>144.68481987577599</v>
       </c>
       <c r="G19" s="8">
-        <v>131.340852670807</v>
+        <v>131.34085267080701</v>
       </c>
       <c r="H19" s="8">
-        <v>118.253563726708</v>
+        <v>118.25356372670799</v>
       </c>
       <c r="I19" s="8">
         <v>117.12838866087</v>
@@ -3556,10 +2970,10 @@
         <v>116.024615278211</v>
       </c>
       <c r="K19" s="8">
-        <v>114.941633262215</v>
+        <v>114.94163326221501</v>
       </c>
       <c r="L19" s="8">
-        <v>113.878855490873</v>
+        <v>113.87885549087299</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3570,34 +2984,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L20" s="10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3742,21 +3156,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
@@ -4353,28 +3766,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625"/>
     <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -4409,16 +3821,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" ht="18.35" spans="1:11">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="3">
-        <v>138.031</v>
+        <v>138.03100000000001</v>
       </c>
       <c r="C2" s="3">
         <f>D2/B2/K2</f>
-        <v>4.34684962073737</v>
+        <v>4.3468496207373706</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" si="0">MAX(I2:J2)</f>
@@ -4446,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.35" spans="1:11">
+    <row r="3" spans="1:11" ht="18">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -4455,7 +3867,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C11" si="1">D3/B3/K3</f>
-        <v>3.31437236144888</v>
+        <v>3.314372361448878</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -4483,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18.35" spans="1:11">
+    <row r="4" spans="1:11" ht="18">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -4492,7 +3904,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>3.27455919395466</v>
+        <v>3.2745591939546599</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
@@ -4520,16 +3932,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18.35" spans="1:11">
+    <row r="5" spans="1:11" ht="18">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="3">
-        <v>4164.711</v>
+        <v>4164.7110000000002</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>3.24152144050331</v>
+        <v>3.2415214405033144</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
@@ -4557,16 +3969,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18.35" spans="1:11">
+    <row r="6" spans="1:11" ht="18">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="3">
-        <v>264.164</v>
+        <v>264.16399999999999</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>3.02842173801124</v>
+        <v>3.0284217380112355</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
@@ -4594,16 +4006,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18.35" spans="1:11">
+    <row r="7" spans="1:11" ht="18">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="3">
-        <v>949.089</v>
+        <v>949.08900000000006</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>2.95019750518655</v>
+        <v>2.9501975051865523</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -4631,16 +4043,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.35" spans="1:11">
+    <row r="8" spans="1:11" ht="18">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="3">
-        <v>2121.737</v>
+        <v>2121.7370000000001</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>2.73360930218967</v>
+        <v>2.7336093021896679</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
@@ -4668,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.35" spans="1:11">
+    <row r="9" spans="1:11" ht="18">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -4677,7 +4089,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>2.63933295258512</v>
+        <v>2.6393329525851166</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
@@ -4705,16 +4117,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.35" spans="1:11">
+    <row r="10" spans="1:11" ht="18">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>271.347</v>
+        <v>271.34699999999998</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>2.5797226429627</v>
+        <v>2.5797226429627012</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
@@ -4742,16 +4154,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="17.6" spans="1:11">
+    <row r="11" spans="1:11" ht="18">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>591.854</v>
+        <v>591.85400000000004</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>2.53440882379776</v>
+        <v>2.5344088237977607</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -4779,29 +4191,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="1:11">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:11">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:11">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="1:11">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:11">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H11">
-    <sortCondition ref="C2:C11" descending="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+    <sortCondition descending="1" ref="C2:C11"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FAEF21-155E-1E42-B30B-46DC5F471CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23415F55-971B-3B4A-9D52-747E93F62C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1874,43 +1874,43 @@
         <v>21</v>
       </c>
       <c r="C12" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" s="8">
         <f>C12*0.98</f>
-        <v>24.5</v>
+        <v>14.7</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>24.009999999999998</v>
+        <v>14.405999999999999</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>23.529799999999998</v>
+        <v>14.117879999999998</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>23.059203999999998</v>
+        <v>13.835522399999997</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="2"/>
-        <v>22.598019919999999</v>
+        <v>13.558811951999997</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>22.146059521599998</v>
+        <v>13.287635712959997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>21.703138331167999</v>
+        <v>13.021882998700796</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="2"/>
-        <v>21.269075564544639</v>
+        <v>12.76144533872678</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>20.843694053253746</v>
+        <v>12.506216431952245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1921,34 +1921,34 @@
         <v>21</v>
       </c>
       <c r="C13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L13" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1998,43 +1998,43 @@
       </c>
       <c r="C15" s="8">
         <f>C14*C13</f>
-        <v>496.89440993788799</v>
+        <v>621.11801242236004</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ref="D15:L15" si="3">D14*D13</f>
-        <v>491.92546583850964</v>
+        <v>614.90683229813703</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="3"/>
-        <v>487.05590062111838</v>
+        <v>608.81987577639802</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="3"/>
-        <v>482.28273291925439</v>
+        <v>602.85341614906804</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="3"/>
-        <v>477.60310062111762</v>
+        <v>597.00387577639708</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="3"/>
-        <v>473.01425490683198</v>
+        <v>591.26781863354006</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="3"/>
-        <v>468.51355464347841</v>
+        <v>585.64194330434805</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="3"/>
-        <v>464.0984611128448</v>
+        <v>580.12307639105597</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="3"/>
-        <v>459.76653304886077</v>
+        <v>574.70816631107596</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="3"/>
-        <v>455.51542196349038</v>
+        <v>569.39427745436296</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/data/4.5吨冷链车.xlsx
+++ b/data/4.5吨冷链车.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23415F55-971B-3B4A-9D52-747E93F62C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20917" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -19,20 +13,7 @@
     <sheet name="运营参数" sheetId="5" r:id="rId4"/>
     <sheet name="线路" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
@@ -291,12 +272,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,7 +294,6 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +301,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -325,7 +308,6 @@
       <sz val="14"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,7 +315,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,7 +322,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +330,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -359,27 +338,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -435,9 +743,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -500,17 +1050,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -768,26 +1362,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="5" max="8" width="11.83203125"/>
-    <col min="10" max="12" width="11.83203125"/>
+    <col min="5" max="8" width="11.8359375"/>
+    <col min="10" max="12" width="11.8359375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -833,31 +1427,31 @@
         <v>82724.5851231087</v>
       </c>
       <c r="D2" s="14">
-        <v>81897.339271877601</v>
+        <v>81897.3392718776</v>
       </c>
       <c r="E2" s="14">
-        <v>81078.365879158897</v>
+        <v>81078.3658791589</v>
       </c>
       <c r="F2" s="14">
-        <v>80267.582220367301</v>
+        <v>80267.5822203673</v>
       </c>
       <c r="G2" s="14">
-        <v>79464.906398163599</v>
+        <v>79464.9063981636</v>
       </c>
       <c r="H2" s="14">
-        <v>78670.257334181995</v>
+        <v>78670.257334182</v>
       </c>
       <c r="I2" s="14">
-        <v>77883.554760840096</v>
+        <v>77883.5547608401</v>
       </c>
       <c r="J2" s="14">
         <v>77104.7192132317</v>
       </c>
       <c r="K2" s="14">
-        <v>76333.672021099395</v>
+        <v>76333.6720210994</v>
       </c>
       <c r="L2" s="14">
-        <v>75570.335300888401</v>
+        <v>75570.3353008884</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -868,34 +1462,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="D3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="E3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="F3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="G3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="H3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="I3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="J3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="K3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
       <c r="L3" s="14">
-        <v>62043.439079177799</v>
+        <v>62043.4390791778</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1069,43 +1663,43 @@
       </c>
       <c r="C8" s="17">
         <f>C2+C3+C7</f>
-        <v>162268.0242022865</v>
+        <v>162268.024202286</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
-        <v>161440.7783510554</v>
+        <v>161440.778351055</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="1"/>
-        <v>160621.8049583367</v>
+        <v>160621.804958337</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>159811.0212995451</v>
+        <v>159811.021299545</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
-        <v>159008.34547734138</v>
+        <v>159008.345477341</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>158213.69641335978</v>
+        <v>158213.69641336</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="1"/>
-        <v>157426.99384001788</v>
+        <v>157426.993840018</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>156648.1582924095</v>
+        <v>156648.158292409</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>155877.11110027719</v>
+        <v>155877.111100277</v>
       </c>
       <c r="L8" s="17">
         <f t="shared" si="1"/>
-        <v>155113.7743800662</v>
+        <v>155113.774380066</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1122,28 +1716,28 @@
         <v>37111.5538049182</v>
       </c>
       <c r="E9" s="17">
-        <v>37059.171419930302</v>
+        <v>37059.1714199303</v>
       </c>
       <c r="F9" s="17">
-        <v>37007.312858792298</v>
+        <v>37007.3128587923</v>
       </c>
       <c r="G9" s="17">
-        <v>36955.972883265596</v>
+        <v>36955.9728832656</v>
       </c>
       <c r="H9" s="17">
         <v>36905.1463074942</v>
       </c>
       <c r="I9" s="17">
-        <v>36854.827997480497</v>
+        <v>36854.8279974805</v>
       </c>
       <c r="J9" s="17">
-        <v>36805.012870566999</v>
+        <v>36805.012870567</v>
       </c>
       <c r="K9" s="17">
-        <v>36755.695894922603</v>
+        <v>36755.6958949226</v>
       </c>
       <c r="L9" s="17">
-        <v>36706.872089034601</v>
+        <v>36706.8720890346</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1155,43 +1749,43 @@
       </c>
       <c r="C10" s="17">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
-        <v>199432.48950719251</v>
+        <v>199432.489507193</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="2"/>
-        <v>198552.33215597359</v>
+        <v>198552.332155974</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="2"/>
-        <v>197680.97637826699</v>
+        <v>197680.976378267</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="2"/>
-        <v>196818.33415833738</v>
+        <v>196818.334158337</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="2"/>
-        <v>195964.31836060697</v>
+        <v>195964.318360607</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="2"/>
-        <v>195118.84272085398</v>
+        <v>195118.842720854</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>194281.82183749837</v>
+        <v>194281.821837498</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="2"/>
-        <v>193453.17116297651</v>
+        <v>193453.171162977</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" si="2"/>
-        <v>192632.80699519979</v>
+        <v>192632.8069952</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="2"/>
-        <v>191820.64646910079</v>
+        <v>191820.646469101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1208,13 +1802,13 @@
         <v>13.72</v>
       </c>
       <c r="E11" s="8">
-        <v>13.445600000000001</v>
+        <v>13.4456</v>
       </c>
       <c r="F11" s="8">
         <v>13.176688</v>
       </c>
       <c r="G11" s="8">
-        <v>12.913154240000001</v>
+        <v>12.91315424</v>
       </c>
       <c r="H11" s="8">
         <v>12.6548911552</v>
@@ -1223,7 +1817,7 @@
         <v>12.401793332096</v>
       </c>
       <c r="J11" s="8">
-        <v>12.153757465454101</v>
+        <v>12.1537574654541</v>
       </c>
       <c r="K11" s="8">
         <v>11.910682316145</v>
@@ -1412,22 +2006,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.3359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1515,31 +2110,31 @@
         <v>900</v>
       </c>
       <c r="D3" s="15">
-        <v>774.34350596224499</v>
+        <v>774.343505962245</v>
       </c>
       <c r="E3" s="15">
-        <v>699.26192640775298</v>
+        <v>699.261926407753</v>
       </c>
       <c r="F3" s="15">
-        <v>614.94506608887696</v>
+        <v>614.945066088877</v>
       </c>
       <c r="G3" s="15">
-        <v>546.37677780696004</v>
+        <v>546.37677780696</v>
       </c>
       <c r="H3" s="15">
-        <v>516.55385551465599</v>
+        <v>516.553855514656</v>
       </c>
       <c r="I3" s="15">
-        <v>493.39921527331001</v>
+        <v>493.39921527331</v>
       </c>
       <c r="J3" s="15">
-        <v>466.46797102233597</v>
+        <v>466.467971022336</v>
       </c>
       <c r="K3" s="15">
-        <v>445.55844157477901</v>
+        <v>445.558441574779</v>
       </c>
       <c r="L3" s="15">
-        <v>433.90523863231101</v>
+        <v>433.905238632311</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1591,31 +2186,31 @@
         <v>1000</v>
       </c>
       <c r="D5" s="15">
-        <v>979.80555078111502</v>
+        <v>979.805550781115</v>
       </c>
       <c r="E5" s="15">
-        <v>961.58878479915597</v>
+        <v>961.588784799156</v>
       </c>
       <c r="F5" s="15">
-        <v>945.02478641744699</v>
+        <v>945.024786417447</v>
       </c>
       <c r="G5" s="15">
-        <v>929.86063962268202</v>
+        <v>929.860639622682</v>
       </c>
       <c r="H5" s="15">
-        <v>915.89587471672496</v>
+        <v>915.895874716725</v>
       </c>
       <c r="I5" s="15">
-        <v>902.96908503734801</v>
+        <v>902.969085037348</v>
       </c>
       <c r="J5" s="15">
-        <v>890.94852620953895</v>
+        <v>890.948526209539</v>
       </c>
       <c r="K5" s="15">
-        <v>879.72536210445298</v>
+        <v>879.725362104453</v>
       </c>
       <c r="L5" s="15">
-        <v>869.20871515059002</v>
+        <v>869.20871515059</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1745,39 +2340,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>202712.96118214715</v>
+        <v>202712.961182147</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>193200.95896868245</v>
+        <v>193200.958968682</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>182947.23311480688</v>
+        <v>182947.233114807</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>174422.34813919102</v>
+        <v>174422.348139191</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>169903.93177030535</v>
+        <v>169903.931770305</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>166166.5208814393</v>
+        <v>166166.520881439</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="0"/>
-        <v>162151.1349852829</v>
+        <v>162151.134985283</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="0"/>
-        <v>158825.63398896775</v>
+        <v>158825.633988968</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="0"/>
-        <v>156503.48252979599</v>
+        <v>156503.482529796</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1788,34 +2383,34 @@
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>26792.687779456399</v>
+        <v>26792.6877794564</v>
       </c>
       <c r="D10" s="17">
-        <v>25731.655474442501</v>
+        <v>25731.6554744425</v>
       </c>
       <c r="E10" s="17">
-        <v>25042.540975628799</v>
+        <v>25042.5409756288</v>
       </c>
       <c r="F10" s="17">
-        <v>24303.565067134099</v>
+        <v>24303.5650671341</v>
       </c>
       <c r="G10" s="17">
-        <v>23687.429092815099</v>
+        <v>23687.4290928151</v>
       </c>
       <c r="H10" s="17">
-        <v>23353.388636064599</v>
+        <v>23353.3886360646</v>
       </c>
       <c r="I10" s="17">
         <v>23075.3525171486</v>
       </c>
       <c r="J10" s="17">
-        <v>22778.991456742599</v>
+        <v>22778.9914567426</v>
       </c>
       <c r="K10" s="17">
-        <v>22531.950046172798</v>
+        <v>22531.9500461728</v>
       </c>
       <c r="L10" s="17">
-        <v>22356.066483806499</v>
+        <v>22356.0664838065</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1827,43 +2422,43 @@
       </c>
       <c r="C11" s="17">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
-        <v>244292.68777945641</v>
+        <v>244292.687779456</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="1"/>
-        <v>228444.61665658964</v>
+        <v>228444.61665659</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="1"/>
-        <v>218243.49994431125</v>
+        <v>218243.499944311</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="1"/>
-        <v>207250.79818194098</v>
+        <v>207250.798181941</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="1"/>
-        <v>198109.7772320061</v>
+        <v>198109.777232006</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>193257.32040636995</v>
+        <v>193257.32040637</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="1"/>
-        <v>189241.87339858789</v>
+        <v>189241.873398588</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>184930.1264420255</v>
+        <v>184930.126442026</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>181357.58403514055</v>
+        <v>181357.584035141</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="1"/>
-        <v>178859.54901360249</v>
+        <v>178859.549013602</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1874,43 +2469,43 @@
         <v>21</v>
       </c>
       <c r="C12" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8">
         <f>C12*0.98</f>
-        <v>14.7</v>
+        <v>24.5</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>14.405999999999999</v>
+        <v>24.01</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>14.117879999999998</v>
+        <v>23.5298</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>13.835522399999997</v>
+        <v>23.059204</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="2"/>
-        <v>13.558811951999997</v>
+        <v>22.59801992</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>13.287635712959997</v>
+        <v>22.1460595216</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="2"/>
-        <v>13.021882998700796</v>
+        <v>21.703138331168</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="2"/>
-        <v>12.76144533872678</v>
+        <v>21.2690755645446</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="2"/>
-        <v>12.506216431952245</v>
+        <v>20.8436940532537</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1962,19 +2557,19 @@
         <v>6.2111801242236</v>
       </c>
       <c r="D14" s="8">
-        <v>6.1490683229813703</v>
+        <v>6.14906832298137</v>
       </c>
       <c r="E14" s="8">
-        <v>6.0881987577639798</v>
+        <v>6.08819875776398</v>
       </c>
       <c r="F14" s="8">
         <v>6.02853416149068</v>
       </c>
       <c r="G14" s="8">
-        <v>5.9700387577639704</v>
+        <v>5.97003875776397</v>
       </c>
       <c r="H14" s="8">
-        <v>5.9126781863354001</v>
+        <v>5.9126781863354</v>
       </c>
       <c r="I14" s="8">
         <v>5.85641943304348</v>
@@ -1983,7 +2578,7 @@
         <v>5.80123076391056</v>
       </c>
       <c r="K14" s="8">
-        <v>5.7470816631107597</v>
+        <v>5.74708166311076</v>
       </c>
       <c r="L14" s="8">
         <v>5.69394277454363</v>
@@ -1998,43 +2593,43 @@
       </c>
       <c r="C15" s="8">
         <f>C14*C13</f>
-        <v>621.11801242236004</v>
+        <v>621.11801242236</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ref="D15:L15" si="3">D14*D13</f>
-        <v>614.90683229813703</v>
+        <v>614.906832298137</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="3"/>
-        <v>608.81987577639802</v>
+        <v>608.819875776398</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="3"/>
-        <v>602.85341614906804</v>
+        <v>602.853416149068</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="3"/>
-        <v>597.00387577639708</v>
+        <v>597.003875776397</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="3"/>
-        <v>591.26781863354006</v>
+        <v>591.26781863354</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="3"/>
-        <v>585.64194330434805</v>
+        <v>585.641943304348</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="3"/>
-        <v>580.12307639105597</v>
+        <v>580.123076391056</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="3"/>
-        <v>574.70816631107596</v>
+        <v>574.708166311076</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="3"/>
-        <v>569.39427745436296</v>
+        <v>569.394277454363</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2217,23 +2812,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125"/>
+    <col min="1" max="1" width="21.3359375" customWidth="1"/>
+    <col min="3" max="3" width="11.8359375"/>
+    <col min="5" max="5" width="11.59375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2324,7 +2921,7 @@
         <v>2391.98927250304</v>
       </c>
       <c r="E3" s="15">
-        <v>1961.4312034524901</v>
+        <v>1961.43120345249</v>
       </c>
       <c r="F3" s="15">
         <v>1840.04031182783</v>
@@ -2336,16 +2933,16 @@
         <v>1014.53934665188</v>
       </c>
       <c r="I3" s="15">
-        <v>780.43547988886803</v>
+        <v>780.435479888868</v>
       </c>
       <c r="J3" s="15">
-        <v>682.17625668872699</v>
+        <v>682.176256688727</v>
       </c>
       <c r="K3" s="15">
-        <v>659.55560949800599</v>
+        <v>659.555609498006</v>
       </c>
       <c r="L3" s="15">
-        <v>639.95709350887205</v>
+        <v>639.957093508872</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2397,31 +2994,31 @@
         <v>900</v>
       </c>
       <c r="D5" s="15">
-        <v>774.34350596224499</v>
+        <v>774.343505962245</v>
       </c>
       <c r="E5" s="15">
-        <v>699.26192640775298</v>
+        <v>699.261926407753</v>
       </c>
       <c r="F5" s="15">
-        <v>614.94506608887696</v>
+        <v>614.945066088877</v>
       </c>
       <c r="G5" s="15">
-        <v>546.37677780696004</v>
+        <v>546.37677780696</v>
       </c>
       <c r="H5" s="15">
-        <v>516.55385551465599</v>
+        <v>516.553855514656</v>
       </c>
       <c r="I5" s="15">
-        <v>493.39921527331001</v>
+        <v>493.39921527331</v>
       </c>
       <c r="J5" s="15">
-        <v>466.46797102233597</v>
+        <v>466.467971022336</v>
       </c>
       <c r="K5" s="15">
-        <v>445.55844157477901</v>
+        <v>445.558441574779</v>
       </c>
       <c r="L5" s="15">
-        <v>433.90523863231101</v>
+        <v>433.905238632311</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2473,31 +3070,31 @@
         <v>1000</v>
       </c>
       <c r="D7" s="15">
-        <v>979.80555078111502</v>
+        <v>979.805550781115</v>
       </c>
       <c r="E7" s="15">
-        <v>961.58878479915597</v>
+        <v>961.588784799156</v>
       </c>
       <c r="F7" s="15">
-        <v>945.02478641744699</v>
+        <v>945.024786417447</v>
       </c>
       <c r="G7" s="15">
-        <v>929.86063962268202</v>
+        <v>929.860639622682</v>
       </c>
       <c r="H7" s="15">
-        <v>915.89587471672496</v>
+        <v>915.895874716725</v>
       </c>
       <c r="I7" s="15">
-        <v>902.96908503734801</v>
+        <v>902.969085037348</v>
       </c>
       <c r="J7" s="15">
-        <v>890.94852620953895</v>
+        <v>890.948526209539</v>
       </c>
       <c r="K7" s="15">
-        <v>879.72536210445298</v>
+        <v>879.725362104453</v>
       </c>
       <c r="L7" s="15">
-        <v>869.20871515059002</v>
+        <v>869.20871515059</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2590,28 +3187,28 @@
         <v>2920.35718593309</v>
       </c>
       <c r="E10" s="15">
-        <v>2482.3036080431302</v>
+        <v>2482.30360804313</v>
       </c>
       <c r="F10" s="15">
-        <v>2355.7698962539498</v>
+        <v>2355.76989625395</v>
       </c>
       <c r="G10" s="15">
-        <v>2257.1873974662799</v>
+        <v>2257.18739746628</v>
       </c>
       <c r="H10" s="15">
-        <v>1446.7371875369599</v>
+        <v>1446.73718753696</v>
       </c>
       <c r="I10" s="15">
-        <v>1167.0421449154701</v>
+        <v>1167.04214491547</v>
       </c>
       <c r="J10" s="15">
-        <v>1045.2676179954501</v>
+        <v>1045.26761799545</v>
       </c>
       <c r="K10" s="15">
         <v>1016.79641698969</v>
       </c>
       <c r="L10" s="15">
-        <v>991.98582317815305</v>
+        <v>991.985823178153</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2703,39 +3300,39 @@
       </c>
       <c r="D13" s="17">
         <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
-        <v>266308.21095885558</v>
+        <v>266308.210958856</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>240389.77255347205</v>
+        <v>240389.772553472</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>229353.21174032445</v>
+        <v>229353.211740324</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="0"/>
-        <v>220468.57292678603</v>
+        <v>220468.572926786</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>181738.69414989959</v>
+        <v>181738.6941499</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>168247.73962365359</v>
+        <v>168247.739623654</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="0"/>
-        <v>161462.13122714593</v>
+        <v>161462.131227146</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="0"/>
-        <v>158670.32128268984</v>
+        <v>158670.32128269</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="0"/>
-        <v>156291.7887547951</v>
+        <v>156291.788754795</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2752,25 +3349,25 @@
         <v>26625.9575081287</v>
       </c>
       <c r="E14" s="17">
-        <v>25263.162136589901</v>
+        <v>25263.1621365899</v>
       </c>
       <c r="F14" s="17">
-        <v>24658.162753217599</v>
+        <v>24658.1627532176</v>
       </c>
       <c r="G14" s="17">
-        <v>24165.787309453699</v>
+        <v>24165.7873094537</v>
       </c>
       <c r="H14" s="17">
-        <v>22184.210187959401</v>
+        <v>22184.2101879594</v>
       </c>
       <c r="I14" s="17">
         <v>21456.1838433782</v>
       </c>
       <c r="J14" s="17">
-        <v>21063.551925949901</v>
+        <v>21063.5519259499</v>
       </c>
       <c r="K14" s="17">
-        <v>20877.108197241902</v>
+        <v>20877.1081972419</v>
       </c>
       <c r="L14" s="17">
         <v>20723.0404031451</v>
@@ -2785,43 +3382,43 @@
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:L15" si="1">C14+C13</f>
-        <v>404034.84887081443</v>
+        <v>404034.848870814</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="1"/>
-        <v>292934.16846698429</v>
+        <v>292934.168466984</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>265652.93469006196</v>
+        <v>265652.934690062</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>254011.37449354204</v>
+        <v>254011.374493542</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="1"/>
-        <v>244634.36023623974</v>
+        <v>244634.36023624</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>203922.90433785898</v>
+        <v>203922.904337859</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="1"/>
-        <v>189703.9234670318</v>
+        <v>189703.923467032</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" si="1"/>
-        <v>182525.68315309583</v>
+        <v>182525.683153096</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>179547.42947993174</v>
+        <v>179547.429479932</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="1"/>
-        <v>177014.8291579402</v>
+        <v>177014.82915794</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2838,28 +3435,28 @@
         <v>2.5</v>
       </c>
       <c r="E16" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="F16" s="8">
-        <v>2.4009999999999998</v>
+        <v>2.401</v>
       </c>
       <c r="G16" s="8">
-        <v>2.3529800000000001</v>
+        <v>2.35298</v>
       </c>
       <c r="H16" s="8">
-        <v>2.3059204000000002</v>
+        <v>2.3059204</v>
       </c>
       <c r="I16" s="8">
-        <v>2.2598019919999999</v>
+        <v>2.259801992</v>
       </c>
       <c r="J16" s="8">
-        <v>2.2146059521599999</v>
+        <v>2.21460595216</v>
       </c>
       <c r="K16" s="8">
-        <v>2.1703138331168002</v>
+        <v>2.1703138331168</v>
       </c>
       <c r="L16" s="8">
-        <v>2.1269075564544599</v>
+        <v>2.12690755645446</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2908,34 +3505,43 @@
         <v>33</v>
       </c>
       <c r="C18" s="8">
-        <v>6.2111801242236</v>
+        <v>13</v>
       </c>
       <c r="D18" s="8">
-        <v>6.1490683229813703</v>
+        <f>C18*0.999</f>
+        <v>12.987</v>
       </c>
       <c r="E18" s="8">
-        <v>6.0881987577639798</v>
+        <f t="shared" ref="E18:L18" si="2">D18*0.999</f>
+        <v>12.974013</v>
       </c>
       <c r="F18" s="8">
-        <v>6.02853416149068</v>
+        <f t="shared" si="2"/>
+        <v>12.961038987</v>
       </c>
       <c r="G18" s="8">
-        <v>5.9700387577639704</v>
+        <f t="shared" si="2"/>
+        <v>12.948077948013</v>
       </c>
       <c r="H18" s="8">
-        <v>5.9126781863354001</v>
+        <f t="shared" si="2"/>
+        <v>12.935129870065</v>
       </c>
       <c r="I18" s="8">
-        <v>5.85641943304348</v>
+        <f t="shared" si="2"/>
+        <v>12.9221947401949</v>
       </c>
       <c r="J18" s="8">
-        <v>5.80123076391056</v>
+        <f t="shared" si="2"/>
+        <v>12.9092725454547</v>
       </c>
       <c r="K18" s="8">
-        <v>5.7470816631107597</v>
+        <f t="shared" si="2"/>
+        <v>12.8963632729093</v>
       </c>
       <c r="L18" s="8">
-        <v>5.69394277454363</v>
+        <f t="shared" si="2"/>
+        <v>12.8834669096364</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2946,34 +3552,44 @@
         <v>7</v>
       </c>
       <c r="C19" s="8">
-        <v>186.33540372670799</v>
+        <f>C17*C18</f>
+        <v>390</v>
       </c>
       <c r="D19" s="8">
-        <v>172.173913043478</v>
+        <f t="shared" ref="D19:L19" si="3">D17*D18</f>
+        <v>363.636</v>
       </c>
       <c r="E19" s="8">
-        <v>158.29316770186301</v>
+        <f t="shared" si="3"/>
+        <v>337.324338</v>
       </c>
       <c r="F19" s="8">
-        <v>144.68481987577599</v>
+        <f t="shared" si="3"/>
+        <v>311.064935688</v>
       </c>
       <c r="G19" s="8">
-        <v>131.34085267080701</v>
+        <f t="shared" si="3"/>
+        <v>284.857714856286</v>
       </c>
       <c r="H19" s="8">
-        <v>118.25356372670799</v>
+        <f t="shared" si="3"/>
+        <v>258.7025974013</v>
       </c>
       <c r="I19" s="8">
-        <v>117.12838866087</v>
+        <f t="shared" si="3"/>
+        <v>258.443894803898</v>
       </c>
       <c r="J19" s="8">
-        <v>116.024615278211</v>
+        <f t="shared" si="3"/>
+        <v>258.185450909095</v>
       </c>
       <c r="K19" s="8">
-        <v>114.94163326221501</v>
+        <f t="shared" si="3"/>
+        <v>257.927265458185</v>
       </c>
       <c r="L19" s="8">
-        <v>113.87885549087299</v>
+        <f t="shared" si="3"/>
+        <v>257.669338192727</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2984,34 +3600,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L20" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3025,39 +3641,39 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:L21" si="2">C21</f>
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>0.2</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3072,39 +3688,39 @@
         <v>5000</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:L22" si="3">C22</f>
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>5000</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
@@ -3119,57 +3735,58 @@
         <v>2000</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:L23" si="4">C23</f>
+        <f t="shared" ref="D23:L23" si="6">C23</f>
         <v>2000</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
@@ -3766,27 +4383,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625"/>
     <col min="7" max="7" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="15.75" spans="1:11">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -3821,16 +4439,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18">
+    <row r="2" ht="18.35" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="3">
-        <v>138.03100000000001</v>
+        <v>138.031</v>
       </c>
       <c r="C2" s="3">
         <f>D2/B2/K2</f>
-        <v>4.3468496207373706</v>
+        <v>4.34684962073737</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" si="0">MAX(I2:J2)</f>
@@ -3858,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18">
+    <row r="3" ht="18.35" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -3867,7 +4485,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C11" si="1">D3/B3/K3</f>
-        <v>3.314372361448878</v>
+        <v>3.31437236144888</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -3895,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18">
+    <row r="4" ht="18.35" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -3904,7 +4522,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>3.2745591939546599</v>
+        <v>3.27455919395466</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
@@ -3932,16 +4550,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18">
+    <row r="5" ht="18.35" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="3">
-        <v>4164.7110000000002</v>
+        <v>4164.711</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>3.2415214405033144</v>
+        <v>3.24152144050331</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
@@ -3969,16 +4587,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18">
+    <row r="6" ht="18.35" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="3">
-        <v>264.16399999999999</v>
+        <v>264.164</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>3.0284217380112355</v>
+        <v>3.02842173801124</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
@@ -4006,16 +4624,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18">
+    <row r="7" ht="18.35" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="3">
-        <v>949.08900000000006</v>
+        <v>949.089</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>2.9501975051865523</v>
+        <v>2.95019750518655</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -4043,16 +4661,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18">
+    <row r="8" ht="18.35" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="3">
-        <v>2121.7370000000001</v>
+        <v>2121.737</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>2.7336093021896679</v>
+        <v>2.73360930218967</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
@@ -4080,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18">
+    <row r="9" ht="18.35" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>80</v>
       </c>
@@ -4089,7 +4707,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>2.6393329525851166</v>
+        <v>2.63933295258512</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
@@ -4117,16 +4735,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18">
+    <row r="10" ht="18.35" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>271.34699999999998</v>
+        <v>271.347</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>2.5797226429627012</v>
+        <v>2.5797226429627</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
@@ -4154,16 +4772,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18">
+    <row r="11" ht="17.6" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>591.85400000000004</v>
+        <v>591.854</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>2.5344088237977607</v>
+        <v>2.53440882379776</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -4191,29 +4809,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="4:4">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="4:4">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="4:4">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="4:4">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="4:4">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
-    <sortCondition descending="1" ref="C2:C11"/>
+  <sortState ref="A2:H11">
+    <sortCondition ref="C2:C11" descending="1"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>